--- a/HONDURAS/Delitos/UNAH/UNAH.xlsx
+++ b/HONDURAS/Delitos/UNAH/UNAH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\HONDURAS\Delitos\UNAH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09120C0-05BE-4067-B931-FDBE6119EF9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4081D98C-8907-4673-BDF0-3C93085DB1AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15075" yWindow="135" windowWidth="13650" windowHeight="11385" firstSheet="2" activeTab="3" xr2:uid="{18233244-913E-489D-9A24-1D1BD1406925}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{18233244-913E-489D-9A24-1D1BD1406925}"/>
   </bookViews>
   <sheets>
     <sheet name="Muerte por violencia intenciosa" sheetId="1" r:id="rId1"/>
@@ -1708,7 +1708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1885,12 +1885,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Énfasis2" xfId="1" builtinId="35"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1926,24 +1945,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2115,41 +2116,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color rgb="FF221F1F"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -2257,13 +2223,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2304,17 +2263,46 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
+        <color theme="0"/>
         <name val="Calibri"/>
         <family val="2"/>
+        <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2412,6 +2400,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
@@ -2451,27 +2452,27 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{50236053-21DA-4653-A6E4-CA237431B4A5}" name="Tabla512" displayName="Tabla512" ref="A4:C84" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{50236053-21DA-4653-A6E4-CA237431B4A5}" name="Tabla512" displayName="Tabla512" ref="A4:C84" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A4:C84" xr:uid="{FF710700-3D69-4999-8C1A-A4C1A31C32A6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AD955B3F-723D-4E87-BAF8-10DD7106FD01}" name="Lugar" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{F647492F-C468-4B3F-876D-1E3CDDE40CAD}" name="Muertes" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{8774F74B-DA6C-416F-A805-D4F744B76955}" name="Año" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{AD955B3F-723D-4E87-BAF8-10DD7106FD01}" name="Lugar" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{F647492F-C468-4B3F-876D-1E3CDDE40CAD}" name="Muertes" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{8774F74B-DA6C-416F-A805-D4F744B76955}" name="Año" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{0ABDC39D-3DAD-4F80-8F96-1547FB6219B3}" name="Tabla113" displayName="Tabla113" ref="A4:D418" totalsRowShown="0" headerRowDxfId="15" dataDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{0ABDC39D-3DAD-4F80-8F96-1547FB6219B3}" name="Tabla113" displayName="Tabla113" ref="A4:D418" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="A4:D418" xr:uid="{69C6564C-58E0-4D7C-88E2-A6244DDF6DDE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D418">
     <sortCondition ref="A4:A418"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3396DEB9-7D76-43CE-8D1A-9F830D3BA504}" name="Departamento" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{16B54035-6858-4CD5-807A-FCD00FAE109D}" name="Causa de Muerte" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{C32D0D3A-8BC4-4ED1-A06C-5A289F966A93}" name="Muertes " dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{3396DEB9-7D76-43CE-8D1A-9F830D3BA504}" name="Departamento" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{16B54035-6858-4CD5-807A-FCD00FAE109D}" name="Causa de Muerte" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{C32D0D3A-8BC4-4ED1-A06C-5A289F966A93}" name="Muertes " dataDxfId="15"/>
     <tableColumn id="13" xr3:uid="{B84B5409-AAB2-4BC8-836F-BF50A80435EB}" name="Año" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2498,11 +2499,11 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{07B61D1B-46EA-4D59-85CE-987E481270C8}" name="Tabla14" displayName="Tabla14" ref="A4:C26" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowCellStyle="40% - Énfasis2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{07B61D1B-46EA-4D59-85CE-987E481270C8}" name="Tabla14" displayName="Tabla14" ref="A4:C26" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="40% - Énfasis2">
   <autoFilter ref="A4:C26" xr:uid="{A9F5E053-1D82-474D-93BF-8E8A7A10DD6F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6F8BA277-FF2F-4557-8757-9E7BF4EB0059}" name="Tipo de arma" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{1C400C88-F9FA-4B8C-9F67-6B83012C9F6F}" name="Muertes" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{6F8BA277-FF2F-4557-8757-9E7BF4EB0059}" name="Tipo de arma" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{1C400C88-F9FA-4B8C-9F67-6B83012C9F6F}" name="Muertes" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{0FE7F24A-9ABC-46C9-8CD2-E8AD9C3CD033}" name="Año" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2522,8 +2523,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{946472E9-123E-465F-A50A-E6796A5AF6FC}" name="Tabla6" displayName="Tabla6" ref="A3:C19" totalsRowShown="0">
-  <autoFilter ref="A3:C19" xr:uid="{4E940BF5-9605-4EF0-92C7-BCA32660F363}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{946472E9-123E-465F-A50A-E6796A5AF6FC}" name="Tabla6" displayName="Tabla6" ref="A3:C21" totalsRowShown="0">
+  <autoFilter ref="A3:C21" xr:uid="{4E940BF5-9605-4EF0-92C7-BCA32660F363}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8F476D14-1079-4D64-8B27-CF5FA3100290}" name="Zona"/>
     <tableColumn id="2" xr3:uid="{5FA73FA4-35D9-4E23-B3E3-27E771CA05DB}" name="Muertes"/>
@@ -2585,7 +2586,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C3A8176E-DF49-41F5-8FD4-4E22F0C26D75}" name="Tabla4" displayName="Tabla4" ref="A4:C131" totalsRowShown="0">
   <autoFilter ref="A4:C131" xr:uid="{C946F0B0-8166-4C0A-9D92-CB54EE67E193}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9BAAA5C3-C8AD-4BAD-80EE-42D2B631917D}" name="Departamento" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{9BAAA5C3-C8AD-4BAD-80EE-42D2B631917D}" name="Departamento" dataDxfId="28"/>
     <tableColumn id="2" xr3:uid="{8C4FB825-9689-4EF5-8C52-4D9168A6EB03}" name="Muertes"/>
     <tableColumn id="3" xr3:uid="{F58F0368-E478-459C-B132-2A8FBD9D694F}" name="Año"/>
   </tableColumns>
@@ -11624,8 +11625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA269711-1671-4EDD-8EDA-BB9695DEEB7A}">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112:C123"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13191,13 +13192,13 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="57">
+      <c r="B21" s="80">
         <v>151</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="80">
         <v>2018</v>
       </c>
     </row>
@@ -13213,7 +13214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067B9F28-6F00-4CDB-B59D-46E9231B5C5A}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
@@ -13877,7 +13878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FC50C1-C07C-481C-9F44-A67CE664EFA1}">
   <dimension ref="A2:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>

--- a/HONDURAS/Delitos/UNAH/UNAH.xlsx
+++ b/HONDURAS/Delitos/UNAH/UNAH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\HONDURAS\Delitos\UNAH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB948B4-AA5D-417E-9272-8ED400E6EE76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2460F932-E46B-43A2-BD8D-AE9F5917C851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{18233244-913E-489D-9A24-1D1BD1406925}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{18233244-913E-489D-9A24-1D1BD1406925}"/>
   </bookViews>
   <sheets>
     <sheet name="Muerte por violencia intenciosa" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="286">
   <si>
     <t>Año</t>
   </si>
@@ -329,9 +329,6 @@
   </si>
   <si>
     <t>Río/ quebrada/ laguna o mar</t>
-  </si>
-  <si>
-    <t>Solar baldio/ interperie</t>
   </si>
   <si>
     <t>Otro</t>
@@ -1260,18 +1257,9 @@
     <t>Arma de fuego/ blanca</t>
   </si>
   <si>
-    <t>Via publica</t>
-  </si>
-  <si>
-    <t>Casa de habitacion/ Hotel o similares</t>
-  </si>
-  <si>
     <t>Vehículo Particular</t>
   </si>
   <si>
-    <t>Solar Baldío/ intemperie</t>
-  </si>
-  <si>
     <t>Río/ Quebrada/ Laguna o Mar</t>
   </si>
   <si>
@@ -1281,9 +1269,6 @@
     <t>Empresa o Negocio</t>
   </si>
   <si>
-    <t>Transporte Publico</t>
-  </si>
-  <si>
     <t>Espacio Deportivo</t>
   </si>
   <si>
@@ -1293,18 +1278,9 @@
     <t>Iglesia</t>
   </si>
   <si>
-    <t>Restaurante, Glorieta o similares</t>
-  </si>
-  <si>
     <t>Lanzamientos al vacio</t>
   </si>
   <si>
-    <t>Taller de macánica/ pintura</t>
-  </si>
-  <si>
-    <t>Salon de billar</t>
-  </si>
-  <si>
     <t>Intoxicación tóxicos/ médicos</t>
   </si>
   <si>
@@ -1351,12 +1327,24 @@
   </si>
   <si>
     <t>Muerte Violenta de Mujeres con Características de Femicidio</t>
+  </si>
+  <si>
+    <t>Porcentaje del total de muertes</t>
+  </si>
+  <si>
+    <t>Salón de billar</t>
+  </si>
+  <si>
+    <t>Solar baldío/ interperie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1602,11 +1590,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1778,12 +1767,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="40% - Énfasis2" xfId="1" builtinId="35"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
@@ -2368,31 +2362,31 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{E87915A2-3410-4142-9D41-8168D294C509}" name="muerte_barrio_colonia" displayName="muerte_barrio_colonia" ref="A4:G66" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{E87915A2-3410-4142-9D41-8168D294C509}" name="muerte_barrio_colonia" displayName="muerte_barrio_colonia" ref="A4:G66" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A4:G66" xr:uid="{18D08BDF-4D4F-4BAC-86F9-A206C81B56C8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:F28">
     <sortCondition ref="B4:B28"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="6" xr3:uid="{FFD6658D-426E-456A-9B54-B8A1F6284ABA}" name="Código departamento" dataDxfId="11"/>
-    <tableColumn id="1" xr3:uid="{302F6C22-BF4D-46DE-B5B0-13C406A05783}" name="Departamento" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{A9748BEC-5EA5-4FDF-A985-20802CCC0F68}" name="Código municipio" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{928EC9B2-E18B-421D-A75B-288BB3268453}" name="Municipio" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{27206C2E-57E6-485F-98AE-A5F38C4F48CA}" name="Barrio/Colonia/Aldea" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{30F1850A-34EC-44EE-8525-E3AE1F96C733}" name="Muertes" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{473908AC-EDCD-4F83-87A4-AF2199D5990F}" name="Año" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{FFD6658D-426E-456A-9B54-B8A1F6284ABA}" name="Código departamento" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{302F6C22-BF4D-46DE-B5B0-13C406A05783}" name="Departamento" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{A9748BEC-5EA5-4FDF-A985-20802CCC0F68}" name="Código municipio" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{928EC9B2-E18B-421D-A75B-288BB3268453}" name="Municipio" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{27206C2E-57E6-485F-98AE-A5F38C4F48CA}" name="Barrio/Colonia/Aldea" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{30F1850A-34EC-44EE-8525-E3AE1F96C733}" name="Muertes" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{473908AC-EDCD-4F83-87A4-AF2199D5990F}" name="Año" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{07B61D1B-46EA-4D59-85CE-987E481270C8}" name="muerte_tipo_arma" displayName="muerte_tipo_arma" ref="A4:C26" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="40% - Énfasis2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{07B61D1B-46EA-4D59-85CE-987E481270C8}" name="muerte_tipo_arma" displayName="muerte_tipo_arma" ref="A4:C26" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowCellStyle="40% - Énfasis2">
   <autoFilter ref="A4:C26" xr:uid="{A9F5E053-1D82-474D-93BF-8E8A7A10DD6F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6F8BA277-FF2F-4557-8757-9E7BF4EB0059}" name="Tipo de arma" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{1C400C88-F9FA-4B8C-9F67-6B83012C9F6F}" name="Muertes" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{0FE7F24A-9ABC-46C9-8CD2-E8AD9C3CD033}" name="Año" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6F8BA277-FF2F-4557-8757-9E7BF4EB0059}" name="Tipo de arma" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{1C400C88-F9FA-4B8C-9F67-6B83012C9F6F}" name="Muertes" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{0FE7F24A-9ABC-46C9-8CD2-E8AD9C3CD033}" name="Año" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2423,15 +2417,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F3DC5FB4-F88E-44B4-82F4-EFD3042AA69C}" name="causa_muerte" displayName="causa_muerte" ref="A3:C60" totalsRowShown="0">
-  <autoFilter ref="A3:C60" xr:uid="{42ED373C-6A19-4C29-8440-3019C6C66592}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F3DC5FB4-F88E-44B4-82F4-EFD3042AA69C}" name="causa_muerte" displayName="causa_muerte" ref="A3:D60" totalsRowShown="0">
+  <autoFilter ref="A3:D60" xr:uid="{42ED373C-6A19-4C29-8440-3019C6C66592}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C60">
     <sortCondition ref="A3:A60"/>
   </sortState>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{49E4164F-31A8-4DC8-96A4-1EB4EA68B7C2}" name="Causa"/>
     <tableColumn id="2" xr3:uid="{EADB1B4E-D842-4D6D-8203-B67FC221F31A}" name="Muertes"/>
     <tableColumn id="3" xr3:uid="{4412286B-F0DC-4C0B-90DE-70C7042A69E2}" name="Año"/>
+    <tableColumn id="4" xr3:uid="{3E556013-5827-48C9-9B36-1E528D4904B9}" name="Porcentaje del total de muertes" dataDxfId="0" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2450,12 +2445,12 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{461BBA50-52E9-42CB-ADA9-38611E17A3B7}" name="muerte_grupo_edad" displayName="muerte_grupo_edad" ref="A4:C139" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{461BBA50-52E9-42CB-ADA9-38611E17A3B7}" name="muerte_grupo_edad" displayName="muerte_grupo_edad" ref="A4:C139" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A4:C139" xr:uid="{CFC71BC2-DD92-490C-9ECC-395525948865}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CBB527C0-BFAE-4C96-BC96-50AD563105AC}" name="Rango de Edad" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{2C1EB36D-D97B-4FA6-8CBC-B91E81AD1732}" name="Muertes" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{3752033F-83B8-4C10-BE61-4DED8BE4AD50}" name="Año" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{CBB527C0-BFAE-4C96-BC96-50AD563105AC}" name="Rango de Edad" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{2C1EB36D-D97B-4FA6-8CBC-B91E81AD1732}" name="Muertes" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{3752033F-83B8-4C10-BE61-4DED8BE4AD50}" name="Año" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2465,37 +2460,57 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C3A8176E-DF49-41F5-8FD4-4E22F0C26D75}" name="muertes_depto" displayName="muertes_depto" ref="A4:C131" totalsRowShown="0">
   <autoFilter ref="A4:C131" xr:uid="{C946F0B0-8166-4C0A-9D92-CB54EE67E193}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9BAAA5C3-C8AD-4BAD-80EE-42D2B631917D}" name="Departamento" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{8C4FB825-9689-4EF5-8C52-4D9168A6EB03}" name="Muertes" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{F58F0368-E478-459C-B132-2A8FBD9D694F}" name="Año" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{9BAAA5C3-C8AD-4BAD-80EE-42D2B631917D}" name="Departamento" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{8C4FB825-9689-4EF5-8C52-4D9168A6EB03}" name="Muertes" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{F58F0368-E478-459C-B132-2A8FBD9D694F}" name="Año" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{50236053-21DA-4653-A6E4-CA237431B4A5}" name="muerte_lugar" displayName="muerte_lugar" ref="A4:C84" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A4:C84" xr:uid="{FF710700-3D69-4999-8C1A-A4C1A31C32A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{50236053-21DA-4653-A6E4-CA237431B4A5}" name="muerte_lugar" displayName="muerte_lugar" ref="A4:C84" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A4:C84" xr:uid="{FF710700-3D69-4999-8C1A-A4C1A31C32A6}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Restaurante, glorieta o similar"/>
+        <filter val="Restaurante, Glorieta o similares"/>
+        <filter val="Salon de billar"/>
+        <filter val="Sin dato"/>
+        <filter val="Solar Baldío/ intemperie"/>
+        <filter val="Solar baldio/ interperie"/>
+        <filter val="Taller de macánica/ pintura"/>
+        <filter val="Taller/mecánica/pintura"/>
+        <filter val="Transporte Publico"/>
+        <filter val="Transporte público"/>
+        <filter val="Via publica"/>
+        <filter val="Vía pública"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C83">
+    <sortCondition ref="A4:A84"/>
+  </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AD955B3F-723D-4E87-BAF8-10DD7106FD01}" name="Lugar" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{F647492F-C468-4B3F-876D-1E3CDDE40CAD}" name="Muertes" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{8774F74B-DA6C-416F-A805-D4F744B76955}" name="Año" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{AD955B3F-723D-4E87-BAF8-10DD7106FD01}" name="Lugar" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{F647492F-C468-4B3F-876D-1E3CDDE40CAD}" name="Muertes" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{8774F74B-DA6C-416F-A805-D4F744B76955}" name="Año" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{0ABDC39D-3DAD-4F80-8F96-1547FB6219B3}" name="muerte_depto_tipo" displayName="muerte_depto_tipo" ref="A4:D418" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{0ABDC39D-3DAD-4F80-8F96-1547FB6219B3}" name="muerte_depto_tipo" displayName="muerte_depto_tipo" ref="A4:D418" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="A4:D418" xr:uid="{69C6564C-58E0-4D7C-88E2-A6244DDF6DDE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D418">
     <sortCondition ref="A4:A418"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3396DEB9-7D76-43CE-8D1A-9F830D3BA504}" name="Departamento" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{16B54035-6858-4CD5-807A-FCD00FAE109D}" name="Causa de Muerte" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{C32D0D3A-8BC4-4ED1-A06C-5A289F966A93}" name="Muertes " dataDxfId="15"/>
-    <tableColumn id="13" xr3:uid="{B84B5409-AAB2-4BC8-836F-BF50A80435EB}" name="Año" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{3396DEB9-7D76-43CE-8D1A-9F830D3BA504}" name="Departamento" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{16B54035-6858-4CD5-807A-FCD00FAE109D}" name="Causa de Muerte" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{C32D0D3A-8BC4-4ED1-A06C-5A289F966A93}" name="Muertes " dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{B84B5409-AAB2-4BC8-836F-BF50A80435EB}" name="Año" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2906,19 +2921,19 @@
   <sheetData>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>4</v>
@@ -2929,19 +2944,19 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>147</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F5" s="56">
         <v>4</v>
@@ -2952,19 +2967,19 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="F6" s="56">
         <v>4</v>
@@ -2975,19 +2990,19 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F7" s="56">
         <v>3</v>
@@ -2998,19 +3013,19 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F8" s="56">
         <v>14</v>
@@ -3021,19 +3036,19 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F9" s="56">
         <v>8</v>
@@ -3044,19 +3059,19 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F10" s="56">
         <v>8</v>
@@ -3067,19 +3082,19 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" s="56">
         <v>8</v>
@@ -3090,19 +3105,19 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F12" s="56">
         <v>8</v>
@@ -3113,19 +3128,19 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F13" s="56">
         <v>4</v>
@@ -3136,19 +3151,19 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F14" s="56">
         <v>3</v>
@@ -3159,19 +3174,19 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F15" s="56">
         <v>3</v>
@@ -3182,19 +3197,19 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F16" s="56">
         <v>3</v>
@@ -3205,19 +3220,19 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F17" s="56">
         <v>3</v>
@@ -3228,19 +3243,19 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F18" s="56">
         <v>3</v>
@@ -3251,19 +3266,19 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="F19" s="56">
         <v>3</v>
@@ -3274,19 +3289,19 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>173</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F20" s="56">
         <v>5</v>
@@ -3297,19 +3312,19 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>173</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F21" s="56">
         <v>4</v>
@@ -3320,19 +3335,19 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>173</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F22" s="56">
         <v>4</v>
@@ -3343,19 +3358,19 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>173</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F23" s="56">
         <v>4</v>
@@ -3366,19 +3381,19 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>173</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F24" s="56">
         <v>3</v>
@@ -3389,19 +3404,19 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>173</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F25" s="56">
         <v>3</v>
@@ -3412,19 +3427,19 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>173</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F26" s="56">
         <v>3</v>
@@ -3435,19 +3450,19 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>173</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F27" s="56">
         <v>3</v>
@@ -3461,7 +3476,7 @@
         <v>40</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>40</v>
@@ -3481,19 +3496,19 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D29" s="69" t="s">
         <v>30</v>
       </c>
       <c r="E29" s="69" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F29" s="72">
         <v>10</v>
@@ -3504,19 +3519,19 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D30" s="70" t="s">
         <v>30</v>
       </c>
       <c r="E30" s="70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F30" s="73">
         <v>9</v>
@@ -3527,19 +3542,19 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D31" s="69" t="s">
         <v>30</v>
       </c>
       <c r="E31" s="69" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F31" s="72">
         <v>8</v>
@@ -3550,19 +3565,19 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D32" s="70" t="s">
         <v>30</v>
       </c>
       <c r="E32" s="70" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F32" s="73">
         <v>5</v>
@@ -3573,19 +3588,19 @@
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D33" s="69" t="s">
         <v>30</v>
       </c>
       <c r="E33" s="69" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F33" s="72">
         <v>4</v>
@@ -3596,19 +3611,19 @@
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D34" s="70" t="s">
         <v>30</v>
       </c>
       <c r="E34" s="70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F34" s="73">
         <v>4</v>
@@ -3619,19 +3634,19 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D35" s="69" t="s">
         <v>30</v>
       </c>
       <c r="E35" s="69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F35" s="72">
         <v>4</v>
@@ -3642,19 +3657,19 @@
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D36" s="70" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="70" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F36" s="73">
         <v>4</v>
@@ -3665,19 +3680,19 @@
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D37" s="69" t="s">
         <v>30</v>
       </c>
       <c r="E37" s="69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F37" s="72">
         <v>3</v>
@@ -3688,19 +3703,19 @@
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D38" s="70" t="s">
         <v>30</v>
       </c>
       <c r="E38" s="70" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F38" s="73">
         <v>3</v>
@@ -3711,19 +3726,19 @@
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D39" s="69" t="s">
         <v>30</v>
       </c>
       <c r="E39" s="69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F39" s="72">
         <v>3</v>
@@ -3734,19 +3749,19 @@
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D40" s="70" t="s">
         <v>30</v>
       </c>
       <c r="E40" s="70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F40" s="73">
         <v>3</v>
@@ -3757,19 +3772,19 @@
     </row>
     <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D41" s="69" t="s">
         <v>32</v>
       </c>
       <c r="E41" s="69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F41" s="72">
         <v>3</v>
@@ -3780,19 +3795,19 @@
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="C42" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>173</v>
       </c>
       <c r="D42" s="70" t="s">
         <v>31</v>
       </c>
       <c r="E42" s="70" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F42" s="73">
         <v>8</v>
@@ -3803,19 +3818,19 @@
     </row>
     <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B43" s="19" t="s">
-        <v>172</v>
-      </c>
       <c r="C43" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D43" s="69" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F43" s="72">
         <v>6</v>
@@ -3826,19 +3841,19 @@
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="B44" s="21" t="s">
-        <v>172</v>
-      </c>
       <c r="C44" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D44" s="70" t="s">
         <v>31</v>
       </c>
       <c r="E44" s="70" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F44" s="73">
         <v>3</v>
@@ -3849,19 +3864,19 @@
     </row>
     <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>172</v>
-      </c>
       <c r="C45" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D45" s="69" t="s">
         <v>31</v>
       </c>
       <c r="E45" s="69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F45" s="72">
         <v>3</v>
@@ -3872,19 +3887,19 @@
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="B46" s="21" t="s">
-        <v>172</v>
-      </c>
       <c r="C46" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D46" s="70" t="s">
         <v>31</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F46" s="73">
         <v>3</v>
@@ -3898,10 +3913,10 @@
         <v>40</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D47" s="69" t="s">
         <v>40</v>
@@ -3918,19 +3933,19 @@
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="B48" s="26" t="s">
-        <v>204</v>
-      </c>
       <c r="C48" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="D48" s="71" t="s">
-        <v>204</v>
-      </c>
       <c r="E48" s="71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F48" s="74">
         <v>68</v>
@@ -3941,19 +3956,19 @@
     </row>
     <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D49" s="70" t="s">
         <v>30</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F49" s="75">
         <v>5</v>
@@ -3964,19 +3979,19 @@
     </row>
     <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="70" t="s">
         <v>30</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F50" s="75">
         <v>4</v>
@@ -3987,19 +4002,19 @@
     </row>
     <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B51" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="70" t="s">
         <v>30</v>
       </c>
       <c r="E51" s="70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F51" s="75">
         <v>3</v>
@@ -4010,19 +4025,19 @@
     </row>
     <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="70" t="s">
         <v>30</v>
       </c>
       <c r="E52" s="70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F52" s="75">
         <v>3</v>
@@ -4033,19 +4048,19 @@
     </row>
     <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="70" t="s">
         <v>30</v>
       </c>
       <c r="E53" s="70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F53" s="75">
         <v>3</v>
@@ -4056,19 +4071,19 @@
     </row>
     <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B54" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D54" s="70" t="s">
         <v>30</v>
       </c>
       <c r="E54" s="70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F54" s="75">
         <v>3</v>
@@ -4079,19 +4094,19 @@
     </row>
     <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B55" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D55" s="70" t="s">
         <v>30</v>
       </c>
       <c r="E55" s="70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F55" s="75">
         <v>3</v>
@@ -4102,19 +4117,19 @@
     </row>
     <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B56" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D56" s="70" t="s">
         <v>30</v>
       </c>
       <c r="E56" s="70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F56" s="75">
         <v>3</v>
@@ -4125,19 +4140,19 @@
     </row>
     <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D57" s="70" t="s">
         <v>30</v>
       </c>
       <c r="E57" s="70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F57" s="75">
         <v>3</v>
@@ -4148,19 +4163,19 @@
     </row>
     <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B58" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D58" s="70" t="s">
         <v>35</v>
       </c>
       <c r="E58" s="70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F58" s="75">
         <v>6</v>
@@ -4171,19 +4186,19 @@
     </row>
     <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="C59" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>173</v>
       </c>
       <c r="D59" s="70" t="s">
         <v>31</v>
       </c>
       <c r="E59" s="70" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F59" s="75">
         <v>9</v>
@@ -4194,19 +4209,19 @@
     </row>
     <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="C60" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>173</v>
       </c>
       <c r="D60" s="70" t="s">
         <v>31</v>
       </c>
       <c r="E60" s="70" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F60" s="75">
         <v>5</v>
@@ -4217,19 +4232,19 @@
     </row>
     <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="C61" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>173</v>
       </c>
       <c r="D61" s="70" t="s">
         <v>31</v>
       </c>
       <c r="E61" s="70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F61" s="75">
         <v>3</v>
@@ -4240,19 +4255,19 @@
     </row>
     <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="C62" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>173</v>
       </c>
       <c r="D62" s="70" t="s">
         <v>31</v>
       </c>
       <c r="E62" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F62" s="75">
         <v>3</v>
@@ -4263,19 +4278,19 @@
     </row>
     <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B63" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D63" s="70" t="s">
         <v>46</v>
       </c>
       <c r="E63" s="70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F63" s="75">
         <v>3</v>
@@ -4286,19 +4301,19 @@
     </row>
     <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B64" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D64" s="70" t="s">
         <v>37</v>
       </c>
       <c r="E64" s="70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F64" s="75">
         <v>3</v>
@@ -4312,7 +4327,7 @@
         <v>40</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C65" s="22" t="s">
         <v>40</v>
@@ -4332,19 +4347,19 @@
     </row>
     <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C66" s="77" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D66" s="71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E66" s="71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F66" s="76">
         <v>51</v>
@@ -4379,7 +4394,7 @@
   <sheetData>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>4</v>
@@ -4390,7 +4405,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="78" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" s="79">
         <v>318</v>
@@ -4401,7 +4416,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="78" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B6" s="79">
         <v>75</v>
@@ -4412,7 +4427,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="78" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B7" s="79">
         <v>42</v>
@@ -4423,7 +4438,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B8" s="79">
         <v>24</v>
@@ -4434,7 +4449,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B9" s="79">
         <v>1</v>
@@ -4445,7 +4460,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B10" s="79">
         <v>3</v>
@@ -4456,7 +4471,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B11" s="79">
         <v>6</v>
@@ -4467,7 +4482,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B12" s="79">
         <v>309</v>
@@ -4478,7 +4493,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="78" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B13" s="79">
         <v>68</v>
@@ -4489,7 +4504,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="78" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B14" s="79">
         <v>43</v>
@@ -4500,7 +4515,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="78" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B15" s="79">
         <v>12</v>
@@ -4511,7 +4526,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="78" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B16" s="79">
         <v>5</v>
@@ -4522,7 +4537,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="78" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B17" s="79">
         <v>2</v>
@@ -4533,7 +4548,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="78" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B18" s="79">
         <v>1</v>
@@ -4544,7 +4559,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="78" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B19" s="79">
         <v>239</v>
@@ -4555,7 +4570,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="78" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B20" s="79">
         <v>56</v>
@@ -4566,7 +4581,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="78" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B21" s="79">
         <v>38</v>
@@ -4577,7 +4592,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B22" s="79">
         <v>28</v>
@@ -4588,7 +4603,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="78" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B23" s="79">
         <v>2</v>
@@ -4599,7 +4614,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="78" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B24" s="79">
         <v>1</v>
@@ -4610,7 +4625,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="78" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B25" s="79">
         <v>1</v>
@@ -4621,7 +4636,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="78" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B26" s="79">
         <v>2</v>
@@ -5483,7 +5498,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B78" s="36">
         <v>44</v>
@@ -5615,7 +5630,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B90" s="36">
         <v>37</v>
@@ -5747,7 +5762,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B102" s="29">
         <v>38</v>
@@ -5879,7 +5894,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B114" s="29">
         <v>30</v>
@@ -6229,23 +6244,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067B9F28-6F00-4CDB-B59D-46E9231B5C5A}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -6255,10 +6271,13 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B4">
         <v>34</v>
@@ -6266,10 +6285,13 @@
       <c r="C4">
         <v>2010</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="83">
+        <v>6.1750817290228844E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -6277,10 +6299,13 @@
       <c r="C5">
         <v>2011</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="83">
+        <v>7.2648020341445699E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B6">
         <v>49</v>
@@ -6288,10 +6313,13 @@
       <c r="C6">
         <v>2012</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="83">
+        <v>8.8993824918270972E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -6299,8 +6327,11 @@
       <c r="C7">
         <v>2011</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="83">
+        <v>1.9978205593897567E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -6310,10 +6341,13 @@
       <c r="C8">
         <v>2010</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="83">
+        <v>3.6324010170722849E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B9">
         <v>35</v>
@@ -6321,10 +6355,13 @@
       <c r="C9">
         <v>2010</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="83">
+        <v>6.3567017798764986E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -6332,10 +6369,13 @@
       <c r="C10">
         <v>2011</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="83">
+        <v>7.2648020341445699E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -6343,10 +6383,13 @@
       <c r="C11">
         <v>2012</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="83">
+        <v>7.2648020341445699E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B12" s="5">
         <v>5</v>
@@ -6354,10 +6397,13 @@
       <c r="C12" s="5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="83">
+        <v>9.0810025426807123E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B13" s="5">
         <v>10</v>
@@ -6365,10 +6411,13 @@
       <c r="C13" s="5">
         <v>2016</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="83">
+        <v>1.8162005085361425E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
@@ -6376,10 +6425,13 @@
       <c r="C14" s="33">
         <v>2018</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="83">
+        <v>1.8162005085361425E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B15">
         <v>190</v>
@@ -6387,10 +6439,13 @@
       <c r="C15">
         <v>2012</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="83">
+        <v>3.4507809662186709E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B16" s="5">
         <v>118</v>
@@ -6398,10 +6453,13 @@
       <c r="C16" s="5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="83">
+        <v>2.1431166000726479E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B17" s="5">
         <v>88</v>
@@ -6409,10 +6467,13 @@
       <c r="C17" s="5">
         <v>2016</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="83">
+        <v>1.5982564475118054E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B18" s="5">
         <v>81</v>
@@ -6420,10 +6481,13 @@
       <c r="C18" s="33">
         <v>2018</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="83">
+        <v>1.4711224119142753E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B19">
         <v>14</v>
@@ -6431,10 +6495,13 @@
       <c r="C19">
         <v>2010</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="83">
+        <v>2.5426807119505995E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B20">
         <v>15</v>
@@ -6442,10 +6509,13 @@
       <c r="C20">
         <v>2012</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="83">
+        <v>2.7243007628042137E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B21" s="5">
         <v>17</v>
@@ -6453,10 +6523,13 @@
       <c r="C21" s="5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="83">
+        <v>3.0875408645114422E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5">
         <v>6</v>
@@ -6464,10 +6537,13 @@
       <c r="C22" s="5">
         <v>2016</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="83">
+        <v>1.0897203051216855E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" s="5">
         <v>8</v>
@@ -6475,10 +6551,13 @@
       <c r="C23" s="33">
         <v>2018</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="83">
+        <v>1.452960406828914E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B24">
         <v>22</v>
@@ -6486,10 +6565,13 @@
       <c r="C24">
         <v>2012</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="83">
+        <v>3.9956411187795134E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B25" s="5">
         <v>22</v>
@@ -6497,10 +6579,13 @@
       <c r="C25" s="5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="83">
+        <v>3.9956411187795134E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B26" s="5">
         <v>18</v>
@@ -6508,10 +6593,13 @@
       <c r="C26" s="5">
         <v>2016</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="83">
+        <v>3.2691609153650564E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B27" s="5">
         <v>14</v>
@@ -6519,10 +6607,13 @@
       <c r="C27" s="33">
         <v>2018</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="83">
+        <v>2.5426807119505995E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B28">
         <v>17</v>
@@ -6530,10 +6621,13 @@
       <c r="C28">
         <v>2010</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="83">
+        <v>3.0875408645114422E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B29">
         <v>13</v>
@@ -6541,10 +6635,13 @@
       <c r="C29">
         <v>2011</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="83">
+        <v>2.3610606610969852E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B30">
         <v>39</v>
@@ -6552,10 +6649,13 @@
       <c r="C30">
         <v>2012</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="83">
+        <v>7.0831819832909556E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B31" s="82">
         <v>100</v>
@@ -6563,10 +6663,13 @@
       <c r="C31" s="5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D31" s="83">
+        <v>1.8162005085361425E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B32" s="17">
         <v>408</v>
@@ -6574,10 +6677,13 @@
       <c r="C32" s="15">
         <v>2013</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D32" s="83">
+        <v>7.4100980748274606E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B33" s="81">
         <v>290</v>
@@ -6585,10 +6691,13 @@
       <c r="C33">
         <v>2014</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="83">
+        <v>5.266981474754813E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B34" s="5">
         <v>50</v>
@@ -6596,10 +6705,13 @@
       <c r="C34" s="5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="83">
+        <v>9.0810025426807123E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B35" s="5">
         <v>49</v>
@@ -6607,10 +6719,13 @@
       <c r="C35" s="5">
         <v>2016</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="83">
+        <v>8.8993824918270972E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B36" s="5">
         <v>39</v>
@@ -6618,8 +6733,11 @@
       <c r="C36" s="33">
         <v>2018</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="83">
+        <v>7.0831819832909556E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -6629,8 +6747,11 @@
       <c r="C37">
         <v>2010</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="83">
+        <v>1.2895023610606611E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -6640,8 +6761,11 @@
       <c r="C38">
         <v>2011</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="83">
+        <v>1.7072284780239737E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>23</v>
       </c>
@@ -6651,8 +6775,11 @@
       <c r="C39" s="33">
         <v>2015</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="83">
+        <v>2.0159825644751179E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>23</v>
       </c>
@@ -6662,8 +6789,11 @@
       <c r="C40" s="40">
         <v>2016</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="83">
+        <v>2.4518706865237921E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>23</v>
       </c>
@@ -6673,8 +6803,11 @@
       <c r="C41" s="33">
         <v>2018</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="83">
+        <v>1.9070105339629495E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -6684,8 +6817,11 @@
       <c r="C42">
         <v>2008</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="83">
+        <v>5.6665455866327645E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -6695,8 +6831,11 @@
       <c r="C43">
         <v>2012</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D43" s="83">
+        <v>2.4700326916091538E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -6706,8 +6845,11 @@
       <c r="C44" s="18">
         <v>2013</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="83">
+        <v>1.7072284780239737E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -6717,10 +6859,13 @@
       <c r="C45">
         <v>2014</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="83">
+        <v>1.2531783508899382E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B46">
         <v>194</v>
@@ -6728,10 +6873,13 @@
       <c r="C46">
         <v>2010</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="83">
+        <v>3.5234289865601162E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B47">
         <v>267</v>
@@ -6739,10 +6887,13 @@
       <c r="C47">
         <v>2011</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="83">
+        <v>4.8492553577915001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="34" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B48" s="33">
         <v>55</v>
@@ -6750,10 +6901,13 @@
       <c r="C48" s="33">
         <v>2015</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="83">
+        <v>9.9891027969487827E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B49" s="40">
         <v>69</v>
@@ -6761,10 +6915,13 @@
       <c r="C49" s="40">
         <v>2016</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="83">
+        <v>1.2531783508899382E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B50" s="33">
         <v>60</v>
@@ -6772,10 +6929,13 @@
       <c r="C50" s="33">
         <v>2018</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="83">
+        <v>1.0897203051216855E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B51">
         <v>71</v>
@@ -6783,10 +6943,13 @@
       <c r="C51">
         <v>2010</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="83">
+        <v>1.2895023610606611E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="34" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B52">
         <v>83</v>
@@ -6794,10 +6957,13 @@
       <c r="C52">
         <v>2011</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="83">
+        <v>1.5074464220849982E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B53">
         <v>102</v>
@@ -6805,10 +6971,13 @@
       <c r="C53">
         <v>2008</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="83">
+        <v>1.8525245187068651E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B54">
         <v>970</v>
@@ -6816,10 +6985,13 @@
       <c r="C54">
         <v>2008</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="83">
+        <v>0.17617144932800582</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B55">
         <v>75</v>
@@ -6827,10 +6999,13 @@
       <c r="C55">
         <v>2008</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="83">
+        <v>1.3621503814021068E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="34" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B56" s="15">
         <v>151</v>
@@ -6838,10 +7013,13 @@
       <c r="C56" s="15">
         <v>2012</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D56" s="83">
+        <v>2.7424627678895749E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="34" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B57" s="80">
         <v>134</v>
@@ -6849,10 +7027,13 @@
       <c r="C57" s="15">
         <v>2013</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="83">
+        <v>2.4337086814384307E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="34" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B58">
         <v>167</v>
@@ -6860,10 +7041,13 @@
       <c r="C58">
         <v>2014</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="83">
+        <v>3.0330548492553577E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B59" s="5">
         <v>93</v>
@@ -6871,16 +7055,22 @@
       <c r="C59" s="5">
         <v>2016</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="83">
+        <v>1.6890664729386124E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B60" s="5">
         <v>75</v>
       </c>
       <c r="C60" s="33">
         <v>2018</v>
+      </c>
+      <c r="D60" s="83">
+        <v>1.3621503814021068E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7460,7 +7650,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B5" s="46">
         <v>4</v>
@@ -7471,7 +7661,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B6" s="46">
         <v>6</v>
@@ -7625,7 +7815,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B20" s="46">
         <v>3</v>
@@ -7636,7 +7826,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B21" s="46">
         <v>7</v>
@@ -7790,7 +7980,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B35" s="46">
         <v>11</v>
@@ -7801,7 +7991,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B36" s="46">
         <v>3</v>
@@ -7955,7 +8145,7 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B50" s="47">
         <v>7</v>
@@ -7966,7 +8156,7 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B51" s="47">
         <v>6</v>
@@ -8120,7 +8310,7 @@
     </row>
     <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="43" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B65" s="47">
         <v>18</v>
@@ -8131,7 +8321,7 @@
     </row>
     <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B66" s="47">
         <v>5</v>
@@ -8285,7 +8475,7 @@
     </row>
     <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="43" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B80" s="47">
         <v>17</v>
@@ -8296,7 +8486,7 @@
     </row>
     <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="43" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B81" s="47">
         <v>4</v>
@@ -8450,7 +8640,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="43" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B95" s="48">
         <v>13</v>
@@ -8461,7 +8651,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="43" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B96" s="48">
         <v>5</v>
@@ -8615,7 +8805,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="43" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B110" s="48">
         <v>8</v>
@@ -8626,7 +8816,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="43" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B111" s="48">
         <v>4</v>
@@ -8780,7 +8970,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="43" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B125" s="48">
         <v>9</v>
@@ -8791,7 +8981,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="43" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B126" s="48">
         <v>2</v>
@@ -9189,7 +9379,7 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" s="7">
         <v>43</v>
@@ -9200,7 +9390,7 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" s="7">
         <v>10</v>
@@ -9211,7 +9401,7 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" s="7">
         <v>23</v>
@@ -9222,7 +9412,7 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" s="7">
         <v>32</v>
@@ -9233,7 +9423,7 @@
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" s="7">
         <v>31</v>
@@ -9244,7 +9434,7 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="7">
         <v>204</v>
@@ -9255,7 +9445,7 @@
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" s="7">
         <v>15</v>
@@ -9266,7 +9456,7 @@
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" s="7">
         <v>112</v>
@@ -9277,7 +9467,7 @@
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B32" s="7">
         <v>2</v>
@@ -9288,7 +9478,7 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" s="7">
         <v>10</v>
@@ -9299,7 +9489,7 @@
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B34" s="7">
         <v>2</v>
@@ -9310,7 +9500,7 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B35" s="7">
         <v>5</v>
@@ -9321,7 +9511,7 @@
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36" s="7">
         <v>18</v>
@@ -9332,7 +9522,7 @@
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B37" s="7">
         <v>14</v>
@@ -9343,7 +9533,7 @@
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B38" s="7">
         <v>21</v>
@@ -9354,7 +9544,7 @@
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B39" s="7">
         <v>20</v>
@@ -9365,7 +9555,7 @@
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B40" s="7">
         <v>7</v>
@@ -9376,7 +9566,7 @@
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B41" s="7">
         <v>37</v>
@@ -9387,7 +9577,7 @@
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B42" s="7">
         <v>40</v>
@@ -9398,7 +9588,7 @@
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B43" s="7">
         <v>12</v>
@@ -9409,7 +9599,7 @@
     </row>
     <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B44" s="7">
         <v>19</v>
@@ -9420,7 +9610,7 @@
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B45" s="7">
         <v>26</v>
@@ -9431,7 +9621,7 @@
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B46" s="7">
         <v>22</v>
@@ -9442,7 +9632,7 @@
     </row>
     <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B47" s="7">
         <v>238</v>
@@ -9453,7 +9643,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B48" s="7">
         <v>9</v>
@@ -9464,7 +9654,7 @@
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B49" s="7">
         <v>137</v>
@@ -9475,7 +9665,7 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B50" s="7">
         <v>1</v>
@@ -9486,7 +9676,7 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B51" s="7">
         <v>9</v>
@@ -9497,7 +9687,7 @@
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B52" s="7">
         <v>6</v>
@@ -9508,7 +9698,7 @@
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B53" s="7">
         <v>6</v>
@@ -9519,7 +9709,7 @@
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B54" s="7">
         <v>12</v>
@@ -9530,7 +9720,7 @@
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B55" s="7">
         <v>9</v>
@@ -9541,7 +9731,7 @@
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B56" s="7">
         <v>20</v>
@@ -9552,7 +9742,7 @@
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B57" s="7">
         <v>19</v>
@@ -9563,7 +9753,7 @@
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B58" s="7">
         <v>5</v>
@@ -9574,7 +9764,7 @@
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B59" s="7">
         <v>55</v>
@@ -9585,7 +9775,7 @@
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B60" s="53">
         <v>35</v>
@@ -9673,7 +9863,7 @@
     </row>
     <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B68" s="53">
         <v>0</v>
@@ -9783,7 +9973,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B78" s="54">
         <v>23</v>
@@ -9871,7 +10061,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B86" s="54">
         <v>2</v>
@@ -9981,7 +10171,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B96" s="54">
         <v>26</v>
@@ -10069,7 +10259,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B104" s="54">
         <v>2</v>
@@ -10179,7 +10369,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B114" s="54">
         <v>16</v>
@@ -10267,7 +10457,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B122" s="54">
         <v>1</v>
@@ -10388,8 +10578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E10C05C-44F6-4121-8B5F-1AEC22D9703D}">
   <dimension ref="A4:C84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10409,17 +10599,17 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="47">
-        <v>333</v>
+      <c r="A5" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="57">
+        <v>142</v>
       </c>
       <c r="C5" s="55">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
         <v>93</v>
       </c>
@@ -10430,7 +10620,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
         <v>94</v>
       </c>
@@ -10442,19 +10632,19 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="47">
-        <v>3</v>
+      <c r="B8" s="57">
+        <v>32</v>
       </c>
       <c r="C8" s="55">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="47">
         <v>3</v>
@@ -10463,9 +10653,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="47">
         <v>1</v>
@@ -10474,9 +10664,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="47">
         <v>1</v>
@@ -10485,9 +10675,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="47">
         <v>1</v>
@@ -10498,16 +10688,16 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
-        <v>92</v>
+        <v>244</v>
       </c>
       <c r="B13" s="57">
-        <v>403</v>
+        <v>8</v>
       </c>
       <c r="C13" s="55">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55" t="s">
         <v>93</v>
       </c>
@@ -10518,7 +10708,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55" t="s">
         <v>94</v>
       </c>
@@ -10531,18 +10721,18 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="55" t="s">
-        <v>95</v>
+        <v>244</v>
       </c>
       <c r="B16" s="57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16" s="55">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="57">
         <v>11</v>
@@ -10551,9 +10741,9 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="57">
         <v>5</v>
@@ -10562,9 +10752,9 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" s="57">
         <v>8</v>
@@ -10575,18 +10765,18 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" s="57">
+        <v>1</v>
+      </c>
+      <c r="C20" s="55">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
         <v>206</v>
-      </c>
-      <c r="B20" s="57">
-        <v>5</v>
-      </c>
-      <c r="C20" s="55">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
-        <v>207</v>
       </c>
       <c r="B21" s="57">
         <v>3</v>
@@ -10595,9 +10785,9 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B22" s="57">
         <v>2</v>
@@ -10606,9 +10796,9 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B23" s="57">
         <v>1</v>
@@ -10617,9 +10807,9 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B24" s="57">
         <v>1</v>
@@ -10630,27 +10820,27 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="55" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="B25" s="57">
-        <v>142</v>
+        <v>1</v>
       </c>
       <c r="C25" s="55">
-        <v>2013</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="55" t="s">
-        <v>92</v>
+        <v>284</v>
       </c>
       <c r="B26" s="57">
-        <v>302</v>
+        <v>1</v>
       </c>
       <c r="C26" s="55">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55" t="s">
         <v>93</v>
       </c>
@@ -10661,7 +10851,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55" t="s">
         <v>94</v>
       </c>
@@ -10673,19 +10863,19 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="57">
-        <v>19</v>
+      <c r="A29" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="B29" s="47">
+        <v>3</v>
       </c>
       <c r="C29" s="55">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30" s="57">
         <v>3</v>
@@ -10694,9 +10884,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" s="57">
         <v>6</v>
@@ -10705,9 +10895,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B32" s="57">
         <v>4</v>
@@ -10717,19 +10907,19 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="B33" s="57">
+        <v>4</v>
+      </c>
+      <c r="C33" s="55">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="55" t="s">
         <v>206</v>
-      </c>
-      <c r="B33" s="57">
-        <v>8</v>
-      </c>
-      <c r="C33" s="55">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="55" t="s">
-        <v>207</v>
       </c>
       <c r="B34" s="57">
         <v>3</v>
@@ -10738,9 +10928,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B35" s="57">
         <v>3</v>
@@ -10750,19 +10940,19 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="B36" s="57">
+        <v>19</v>
+      </c>
+      <c r="C36" s="55">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="55" t="s">
         <v>245</v>
-      </c>
-      <c r="B36" s="57">
-        <v>8</v>
-      </c>
-      <c r="C36" s="55">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="55" t="s">
-        <v>246</v>
       </c>
       <c r="B37" s="57">
         <v>2</v>
@@ -10771,9 +10961,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" s="57">
         <v>2</v>
@@ -10783,19 +10973,19 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="B39" s="57">
+        <v>15</v>
+      </c>
+      <c r="C39" s="55">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="55" t="s">
         <v>247</v>
-      </c>
-      <c r="B39" s="57">
-        <v>1</v>
-      </c>
-      <c r="C39" s="55">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="55" t="s">
-        <v>248</v>
       </c>
       <c r="B40" s="57">
         <v>4</v>
@@ -10805,30 +10995,30 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="55" t="s">
-        <v>203</v>
+      <c r="A41" s="44" t="s">
+        <v>285</v>
       </c>
       <c r="B41" s="57">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C41" s="55">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="55" t="s">
-        <v>260</v>
+      <c r="A42" s="44" t="s">
+        <v>285</v>
       </c>
       <c r="B42" s="57">
-        <v>327</v>
+        <v>22</v>
       </c>
       <c r="C42" s="55">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="55" t="s">
-        <v>261</v>
+        <v>93</v>
       </c>
       <c r="B43" s="57">
         <v>122</v>
@@ -10837,9 +11027,9 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="55" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B44" s="57">
         <v>10</v>
@@ -10850,18 +11040,18 @@
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="55" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="B45" s="57">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C45" s="55">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="55" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B46" s="57">
         <v>15</v>
@@ -10870,9 +11060,9 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="55" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B47" s="57">
         <v>9</v>
@@ -10881,9 +11071,9 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="55" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B48" s="57">
         <v>8</v>
@@ -10894,18 +11084,18 @@
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="55" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="B49" s="57">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C49" s="55">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="55" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B50" s="57">
         <v>6</v>
@@ -10914,9 +11104,9 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="55" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B51" s="57">
         <v>3</v>
@@ -10925,9 +11115,9 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="55" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B52" s="57">
         <v>1</v>
@@ -10936,9 +11126,9 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B53" s="57">
         <v>1</v>
@@ -10949,18 +11139,18 @@
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="55" t="s">
-        <v>271</v>
+        <v>205</v>
       </c>
       <c r="B54" s="57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C54" s="55">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B55" s="57">
         <v>1</v>
@@ -10971,18 +11161,18 @@
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="55" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="B56" s="57">
-        <v>247</v>
+        <v>8</v>
       </c>
       <c r="C56" s="55">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="55" t="s">
-        <v>261</v>
+        <v>93</v>
       </c>
       <c r="B57" s="57">
         <v>117</v>
@@ -10991,9 +11181,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="55" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B58" s="57">
         <v>22</v>
@@ -11004,18 +11194,18 @@
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="55" t="s">
-        <v>263</v>
+        <v>205</v>
       </c>
       <c r="B59" s="57">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C59" s="55">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="55" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B60" s="57">
         <v>12</v>
@@ -11024,9 +11214,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="55" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B61" s="57">
         <v>8</v>
@@ -11035,9 +11225,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="55" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B62" s="57">
         <v>6</v>
@@ -11048,7 +11238,7 @@
     </row>
     <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="55" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="B63" s="57">
         <v>4</v>
@@ -11057,9 +11247,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="55" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B64" s="57">
         <v>3</v>
@@ -11068,9 +11258,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="55" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B65" s="57">
         <v>3</v>
@@ -11079,9 +11269,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="55" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B66" s="57">
         <v>2</v>
@@ -11090,9 +11280,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B67" s="57">
         <v>1</v>
@@ -11103,29 +11293,29 @@
     </row>
     <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="55" t="s">
-        <v>271</v>
+        <v>205</v>
       </c>
       <c r="B68" s="57">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C68" s="55">
-        <v>2016</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="55" t="s">
-        <v>273</v>
-      </c>
-      <c r="B69" s="57">
-        <v>1</v>
+      <c r="A69" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="47">
+        <v>333</v>
       </c>
       <c r="C69" s="55">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B70" s="57">
         <v>1</v>
@@ -11135,30 +11325,30 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="55" t="s">
-        <v>274</v>
+      <c r="A71" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="B71" s="57">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="C71" s="55">
-        <v>2016</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="55" t="s">
-        <v>260</v>
+      <c r="A72" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="B72" s="57">
-        <v>180</v>
+        <v>302</v>
       </c>
       <c r="C72" s="55">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="55" t="s">
-        <v>261</v>
+        <v>93</v>
       </c>
       <c r="B73" s="57">
         <v>106</v>
@@ -11167,9 +11357,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="55" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B74" s="57">
         <v>12</v>
@@ -11179,19 +11369,19 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="55" t="s">
-        <v>263</v>
+      <c r="A75" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="B75" s="57">
-        <v>22</v>
+        <v>327</v>
       </c>
       <c r="C75" s="55">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="55" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B76" s="57">
         <v>12</v>
@@ -11200,9 +11390,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="55" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B77" s="57">
         <v>7</v>
@@ -11211,9 +11401,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="55" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B78" s="57">
         <v>15</v>
@@ -11223,19 +11413,19 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="55" t="s">
-        <v>267</v>
+      <c r="A79" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="B79" s="57">
-        <v>9</v>
+        <v>247</v>
       </c>
       <c r="C79" s="55">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="55" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B80" s="57">
         <v>3</v>
@@ -11244,9 +11434,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="55" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B81" s="57">
         <v>1</v>
@@ -11255,9 +11445,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B82" s="57">
         <v>2</v>
@@ -11267,19 +11457,19 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="55" t="s">
-        <v>271</v>
+      <c r="A83" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="B83" s="57">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="C83" s="55">
         <v>2018</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B84" s="57">
         <v>3</v>
@@ -11316,10 +11506,10 @@
         <v>71</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>0</v>
@@ -11327,10 +11517,10 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="6">
         <v>13</v>
@@ -11341,7 +11531,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="59" t="s">
         <v>28</v>
@@ -11355,10 +11545,10 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -11369,7 +11559,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="59" t="s">
         <v>25</v>
@@ -11383,10 +11573,10 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -11397,10 +11587,10 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -11411,7 +11601,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="59" t="s">
         <v>24</v>
@@ -11425,10 +11615,10 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="6">
         <v>13</v>
@@ -11439,10 +11629,10 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C13" s="27">
         <v>6</v>
@@ -11453,7 +11643,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="59" t="s">
         <v>28</v>
@@ -11467,10 +11657,10 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C15" s="27">
         <v>6</v>
@@ -11481,7 +11671,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B16" s="59" t="s">
         <v>25</v>
@@ -11495,10 +11685,10 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="27">
         <v>1</v>
@@ -11509,10 +11699,10 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="27">
         <v>1</v>
@@ -11523,7 +11713,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B19" s="59" t="s">
         <v>24</v>
@@ -11537,10 +11727,10 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20" s="27">
         <v>12</v>
@@ -11551,10 +11741,10 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" s="27">
         <v>9</v>
@@ -11565,7 +11755,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="59" t="s">
         <v>28</v>
@@ -11579,10 +11769,10 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C23" s="27">
         <v>3</v>
@@ -11593,7 +11783,7 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B24" s="61" t="s">
         <v>25</v>
@@ -11607,10 +11797,10 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25" s="27">
         <v>2</v>
@@ -11621,10 +11811,10 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="27">
         <v>0</v>
@@ -11635,7 +11825,7 @@
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B27" s="61" t="s">
         <v>24</v>
@@ -11649,10 +11839,10 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C28" s="6">
         <v>2</v>
@@ -11663,7 +11853,7 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" s="61" t="s">
         <v>28</v>
@@ -11677,10 +11867,10 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -11691,7 +11881,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" s="61" t="s">
         <v>25</v>
@@ -11705,10 +11895,10 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C32" s="6">
         <v>1</v>
@@ -11719,10 +11909,10 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -11733,7 +11923,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="61" t="s">
         <v>24</v>
@@ -11747,10 +11937,10 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" s="61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" s="6">
         <v>3</v>
@@ -11764,7 +11954,7 @@
         <v>47</v>
       </c>
       <c r="B36" s="61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C36" s="27">
         <v>2</v>
@@ -11792,7 +11982,7 @@
         <v>47</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C38" s="27">
         <v>0</v>
@@ -11820,7 +12010,7 @@
         <v>47</v>
       </c>
       <c r="B40" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C40" s="27">
         <v>1</v>
@@ -11834,7 +12024,7 @@
         <v>47</v>
       </c>
       <c r="B41" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C41" s="27">
         <v>1</v>
@@ -11862,7 +12052,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" s="27">
         <v>0</v>
@@ -11873,10 +12063,10 @@
     </row>
     <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B44" s="61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C44" s="27">
         <v>3</v>
@@ -11887,7 +12077,7 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B45" s="61" t="s">
         <v>28</v>
@@ -11901,10 +12091,10 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B46" s="61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C46" s="27">
         <v>2</v>
@@ -11915,7 +12105,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B47" s="61" t="s">
         <v>25</v>
@@ -11929,10 +12119,10 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B48" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C48" s="27">
         <v>1</v>
@@ -11943,10 +12133,10 @@
     </row>
     <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B49" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="27">
         <v>1</v>
@@ -11957,7 +12147,7 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B50" s="61" t="s">
         <v>24</v>
@@ -11971,10 +12161,10 @@
     </row>
     <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B51" s="61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C51" s="6">
         <v>6</v>
@@ -11985,7 +12175,7 @@
     </row>
     <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B52" s="61" t="s">
         <v>28</v>
@@ -11999,10 +12189,10 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B53" s="61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C53" s="6">
         <v>0</v>
@@ -12013,7 +12203,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B54" s="61" t="s">
         <v>25</v>
@@ -12027,10 +12217,10 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B55" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C55" s="6">
         <v>1</v>
@@ -12041,10 +12231,10 @@
     </row>
     <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B56" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C56" s="6">
         <v>1</v>
@@ -12055,7 +12245,7 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B57" s="61" t="s">
         <v>24</v>
@@ -12069,10 +12259,10 @@
     </row>
     <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B58" s="61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C58" s="6">
         <v>7</v>
@@ -12086,7 +12276,7 @@
         <v>73</v>
       </c>
       <c r="B59" s="61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C59" s="27">
         <v>3</v>
@@ -12114,7 +12304,7 @@
         <v>73</v>
       </c>
       <c r="B61" s="61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C61" s="27">
         <v>2</v>
@@ -12142,7 +12332,7 @@
         <v>73</v>
       </c>
       <c r="B63" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="27">
         <v>3</v>
@@ -12156,7 +12346,7 @@
         <v>73</v>
       </c>
       <c r="B64" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C64" s="27">
         <v>0</v>
@@ -12184,7 +12374,7 @@
         <v>73</v>
       </c>
       <c r="B66" s="61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C66" s="27">
         <v>2</v>
@@ -12195,10 +12385,10 @@
     </row>
     <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B67" s="61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C67" s="27">
         <v>5</v>
@@ -12209,7 +12399,7 @@
     </row>
     <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B68" s="61" t="s">
         <v>28</v>
@@ -12223,10 +12413,10 @@
     </row>
     <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B69" s="61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C69" s="27">
         <v>4</v>
@@ -12237,7 +12427,7 @@
     </row>
     <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B70" s="61" t="s">
         <v>25</v>
@@ -12251,10 +12441,10 @@
     </row>
     <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B71" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C71" s="27">
         <v>1</v>
@@ -12265,10 +12455,10 @@
     </row>
     <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B72" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C72" s="27">
         <v>1</v>
@@ -12279,7 +12469,7 @@
     </row>
     <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B73" s="61" t="s">
         <v>24</v>
@@ -12293,10 +12483,10 @@
     </row>
     <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B74" s="61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C74" s="6">
         <v>6</v>
@@ -12307,7 +12497,7 @@
     </row>
     <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B75" s="61" t="s">
         <v>28</v>
@@ -12321,10 +12511,10 @@
     </row>
     <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B76" s="61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C76" s="6">
         <v>0</v>
@@ -12335,7 +12525,7 @@
     </row>
     <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B77" s="61" t="s">
         <v>25</v>
@@ -12349,10 +12539,10 @@
     </row>
     <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B78" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C78" s="6">
         <v>1</v>
@@ -12363,10 +12553,10 @@
     </row>
     <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B79" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C79" s="6">
         <v>2</v>
@@ -12377,7 +12567,7 @@
     </row>
     <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B80" s="61" t="s">
         <v>24</v>
@@ -12391,10 +12581,10 @@
     </row>
     <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B81" s="61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C81" s="6">
         <v>7</v>
@@ -12408,7 +12598,7 @@
         <v>74</v>
       </c>
       <c r="B82" s="61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C82" s="27">
         <v>10</v>
@@ -12436,7 +12626,7 @@
         <v>74</v>
       </c>
       <c r="B84" s="61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C84" s="27">
         <v>2</v>
@@ -12464,7 +12654,7 @@
         <v>74</v>
       </c>
       <c r="B86" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C86" s="27">
         <v>0</v>
@@ -12478,7 +12668,7 @@
         <v>74</v>
       </c>
       <c r="B87" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C87" s="27">
         <v>3</v>
@@ -12506,7 +12696,7 @@
         <v>74</v>
       </c>
       <c r="B89" s="61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C89" s="27">
         <v>3</v>
@@ -12517,10 +12707,10 @@
     </row>
     <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B90" s="61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C90" s="27">
         <v>11</v>
@@ -12531,7 +12721,7 @@
     </row>
     <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B91" s="61" t="s">
         <v>28</v>
@@ -12545,10 +12735,10 @@
     </row>
     <row r="92" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B92" s="61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C92" s="27">
         <v>1</v>
@@ -12559,7 +12749,7 @@
     </row>
     <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B93" s="61" t="s">
         <v>25</v>
@@ -12573,10 +12763,10 @@
     </row>
     <row r="94" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B94" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C94" s="27">
         <v>2</v>
@@ -12587,10 +12777,10 @@
     </row>
     <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B95" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C95" s="27">
         <v>1</v>
@@ -12601,7 +12791,7 @@
     </row>
     <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B96" s="61" t="s">
         <v>24</v>
@@ -12615,10 +12805,10 @@
     </row>
     <row r="97" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B97" s="61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C97" s="6">
         <v>12</v>
@@ -12629,7 +12819,7 @@
     </row>
     <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98" s="61" t="s">
         <v>28</v>
@@ -12643,10 +12833,10 @@
     </row>
     <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99" s="61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C99" s="6">
         <v>3</v>
@@ -12657,7 +12847,7 @@
     </row>
     <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B100" s="61" t="s">
         <v>25</v>
@@ -12671,10 +12861,10 @@
     </row>
     <row r="101" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C101" s="6">
         <v>1</v>
@@ -12685,10 +12875,10 @@
     </row>
     <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C102" s="6">
         <v>0</v>
@@ -12699,7 +12889,7 @@
     </row>
     <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" s="61" t="s">
         <v>24</v>
@@ -12713,10 +12903,10 @@
     </row>
     <row r="104" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" s="61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C104" s="6">
         <v>9</v>
@@ -12730,7 +12920,7 @@
         <v>75</v>
       </c>
       <c r="B105" s="61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C105" s="27">
         <v>10</v>
@@ -12758,7 +12948,7 @@
         <v>75</v>
       </c>
       <c r="B107" s="61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C107" s="27">
         <v>1</v>
@@ -12786,7 +12976,7 @@
         <v>75</v>
       </c>
       <c r="B109" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C109" s="27">
         <v>1</v>
@@ -12800,7 +12990,7 @@
         <v>75</v>
       </c>
       <c r="B110" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C110" s="27">
         <v>1</v>
@@ -12828,7 +13018,7 @@
         <v>75</v>
       </c>
       <c r="B112" s="61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C112" s="27">
         <v>5</v>
@@ -12839,10 +13029,10 @@
     </row>
     <row r="113" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B113" s="61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C113" s="27">
         <v>3</v>
@@ -12853,7 +13043,7 @@
     </row>
     <row r="114" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B114" s="61" t="s">
         <v>28</v>
@@ -12867,10 +13057,10 @@
     </row>
     <row r="115" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B115" s="61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C115" s="27">
         <v>6</v>
@@ -12881,7 +13071,7 @@
     </row>
     <row r="116" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B116" s="61" t="s">
         <v>25</v>
@@ -12895,10 +13085,10 @@
     </row>
     <row r="117" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B117" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C117" s="27">
         <v>0</v>
@@ -12909,10 +13099,10 @@
     </row>
     <row r="118" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B118" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C118" s="27">
         <v>0</v>
@@ -12923,7 +13113,7 @@
     </row>
     <row r="119" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B119" s="61" t="s">
         <v>24</v>
@@ -12937,10 +13127,10 @@
     </row>
     <row r="120" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B120" s="61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C120" s="6">
         <v>49</v>
@@ -12951,7 +13141,7 @@
     </row>
     <row r="121" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B121" s="61" t="s">
         <v>28</v>
@@ -12965,10 +13155,10 @@
     </row>
     <row r="122" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B122" s="61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C122" s="6">
         <v>19</v>
@@ -12979,7 +13169,7 @@
     </row>
     <row r="123" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B123" s="61" t="s">
         <v>25</v>
@@ -12993,10 +13183,10 @@
     </row>
     <row r="124" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B124" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C124" s="6">
         <v>5</v>
@@ -13007,10 +13197,10 @@
     </row>
     <row r="125" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B125" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C125" s="6">
         <v>4</v>
@@ -13021,7 +13211,7 @@
     </row>
     <row r="126" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B126" s="61" t="s">
         <v>24</v>
@@ -13035,10 +13225,10 @@
     </row>
     <row r="127" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B127" s="61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C127" s="6">
         <v>74</v>
@@ -13052,7 +13242,7 @@
         <v>76</v>
       </c>
       <c r="B128" s="61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C128" s="27">
         <v>45</v>
@@ -13080,7 +13270,7 @@
         <v>76</v>
       </c>
       <c r="B130" s="61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C130" s="27">
         <v>36</v>
@@ -13108,7 +13298,7 @@
         <v>76</v>
       </c>
       <c r="B132" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C132" s="27">
         <v>5</v>
@@ -13122,7 +13312,7 @@
         <v>76</v>
       </c>
       <c r="B133" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C133" s="27">
         <v>1</v>
@@ -13150,7 +13340,7 @@
         <v>76</v>
       </c>
       <c r="B135" s="61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C135" s="27">
         <v>55</v>
@@ -13161,10 +13351,10 @@
     </row>
     <row r="136" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B136" s="61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C136" s="27">
         <v>32</v>
@@ -13175,7 +13365,7 @@
     </row>
     <row r="137" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B137" s="61" t="s">
         <v>28</v>
@@ -13189,10 +13379,10 @@
     </row>
     <row r="138" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B138" s="61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C138" s="27">
         <v>46</v>
@@ -13203,7 +13393,7 @@
     </row>
     <row r="139" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B139" s="61" t="s">
         <v>25</v>
@@ -13217,10 +13407,10 @@
     </row>
     <row r="140" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B140" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C140" s="27">
         <v>15</v>
@@ -13231,10 +13421,10 @@
     </row>
     <row r="141" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B141" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C141" s="27">
         <v>0</v>
@@ -13245,7 +13435,7 @@
     </row>
     <row r="142" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B142" s="61" t="s">
         <v>24</v>
@@ -13259,10 +13449,10 @@
     </row>
     <row r="143" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B143" s="61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C143" s="6">
         <v>4</v>
@@ -13273,7 +13463,7 @@
     </row>
     <row r="144" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B144" s="61" t="s">
         <v>28</v>
@@ -13287,10 +13477,10 @@
     </row>
     <row r="145" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B145" s="61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C145" s="6">
         <v>3</v>
@@ -13301,7 +13491,7 @@
     </row>
     <row r="146" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B146" s="61" t="s">
         <v>25</v>
@@ -13315,10 +13505,10 @@
     </row>
     <row r="147" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B147" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C147" s="6">
         <v>2</v>
@@ -13329,10 +13519,10 @@
     </row>
     <row r="148" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B148" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C148" s="6">
         <v>1</v>
@@ -13343,7 +13533,7 @@
     </row>
     <row r="149" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B149" s="59" t="s">
         <v>24</v>
@@ -13357,10 +13547,10 @@
     </row>
     <row r="150" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B150" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C150" s="6">
         <v>0</v>
@@ -13374,7 +13564,7 @@
         <v>77</v>
       </c>
       <c r="B151" s="59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C151" s="27">
         <v>5</v>
@@ -13402,7 +13592,7 @@
         <v>77</v>
       </c>
       <c r="B153" s="59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C153" s="27">
         <v>0</v>
@@ -13430,7 +13620,7 @@
         <v>77</v>
       </c>
       <c r="B155" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C155" s="27">
         <v>1</v>
@@ -13444,7 +13634,7 @@
         <v>77</v>
       </c>
       <c r="B156" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C156" s="27">
         <v>0</v>
@@ -13472,7 +13662,7 @@
         <v>77</v>
       </c>
       <c r="B158" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C158" s="27">
         <v>2</v>
@@ -13483,10 +13673,10 @@
     </row>
     <row r="159" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B159" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C159" s="27">
         <v>2</v>
@@ -13497,7 +13687,7 @@
     </row>
     <row r="160" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B160" s="59" t="s">
         <v>28</v>
@@ -13511,10 +13701,10 @@
     </row>
     <row r="161" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B161" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C161" s="27">
         <v>2</v>
@@ -13525,7 +13715,7 @@
     </row>
     <row r="162" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B162" s="59" t="s">
         <v>25</v>
@@ -13539,10 +13729,10 @@
     </row>
     <row r="163" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B163" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C163" s="27">
         <v>0</v>
@@ -13553,10 +13743,10 @@
     </row>
     <row r="164" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B164" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C164" s="27">
         <v>1</v>
@@ -13567,7 +13757,7 @@
     </row>
     <row r="165" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B165" s="59" t="s">
         <v>24</v>
@@ -13581,10 +13771,10 @@
     </row>
     <row r="166" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B166" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C166" s="6">
         <v>18</v>
@@ -13595,7 +13785,7 @@
     </row>
     <row r="167" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B167" s="59" t="s">
         <v>28</v>
@@ -13609,10 +13799,10 @@
     </row>
     <row r="168" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B168" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C168" s="6">
         <v>10</v>
@@ -13623,7 +13813,7 @@
     </row>
     <row r="169" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B169" s="59" t="s">
         <v>25</v>
@@ -13637,10 +13827,10 @@
     </row>
     <row r="170" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B170" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C170" s="6">
         <v>6</v>
@@ -13651,10 +13841,10 @@
     </row>
     <row r="171" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B171" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C171" s="6">
         <v>2</v>
@@ -13665,7 +13855,7 @@
     </row>
     <row r="172" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B172" s="59" t="s">
         <v>24</v>
@@ -13679,10 +13869,10 @@
     </row>
     <row r="173" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B173" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C173" s="6">
         <v>45</v>
@@ -13696,7 +13886,7 @@
         <v>78</v>
       </c>
       <c r="B174" s="59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C174" s="27">
         <v>39</v>
@@ -13724,7 +13914,7 @@
         <v>78</v>
       </c>
       <c r="B176" s="59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C176" s="27">
         <v>18</v>
@@ -13752,7 +13942,7 @@
         <v>78</v>
       </c>
       <c r="B178" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C178" s="27">
         <v>2</v>
@@ -13766,7 +13956,7 @@
         <v>78</v>
       </c>
       <c r="B179" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C179" s="27">
         <v>1</v>
@@ -13794,7 +13984,7 @@
         <v>78</v>
       </c>
       <c r="B181" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C181" s="27">
         <v>55</v>
@@ -13805,10 +13995,10 @@
     </row>
     <row r="182" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B182" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C182" s="27">
         <v>19</v>
@@ -13819,7 +14009,7 @@
     </row>
     <row r="183" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B183" s="59" t="s">
         <v>28</v>
@@ -13833,10 +14023,10 @@
     </row>
     <row r="184" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B184" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C184" s="27">
         <v>20</v>
@@ -13847,7 +14037,7 @@
     </row>
     <row r="185" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B185" s="59" t="s">
         <v>25</v>
@@ -13861,10 +14051,10 @@
     </row>
     <row r="186" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B186" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C186" s="27">
         <v>5</v>
@@ -13875,10 +14065,10 @@
     </row>
     <row r="187" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B187" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C187" s="27">
         <v>2</v>
@@ -13889,7 +14079,7 @@
     </row>
     <row r="188" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B188" s="59" t="s">
         <v>24</v>
@@ -13903,10 +14093,10 @@
     </row>
     <row r="189" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B189" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C189" s="6">
         <v>0</v>
@@ -13917,7 +14107,7 @@
     </row>
     <row r="190" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B190" s="59" t="s">
         <v>28</v>
@@ -13931,10 +14121,10 @@
     </row>
     <row r="191" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B191" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C191" s="6">
         <v>0</v>
@@ -13945,7 +14135,7 @@
     </row>
     <row r="192" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B192" s="59" t="s">
         <v>25</v>
@@ -13959,10 +14149,10 @@
     </row>
     <row r="193" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B193" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C193" s="6">
         <v>0</v>
@@ -13973,10 +14163,10 @@
     </row>
     <row r="194" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B194" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C194" s="6">
         <v>0</v>
@@ -13987,7 +14177,7 @@
     </row>
     <row r="195" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B195" s="59" t="s">
         <v>24</v>
@@ -14001,10 +14191,10 @@
     </row>
     <row r="196" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B196" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C196" s="6">
         <v>0</v>
@@ -14015,10 +14205,10 @@
     </row>
     <row r="197" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B197" s="59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C197" s="27">
         <v>0</v>
@@ -14029,7 +14219,7 @@
     </row>
     <row r="198" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B198" s="59" t="s">
         <v>28</v>
@@ -14043,10 +14233,10 @@
     </row>
     <row r="199" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B199" s="59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C199" s="27">
         <v>0</v>
@@ -14057,7 +14247,7 @@
     </row>
     <row r="200" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B200" s="59" t="s">
         <v>25</v>
@@ -14071,10 +14261,10 @@
     </row>
     <row r="201" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B201" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C201" s="27">
         <v>0</v>
@@ -14085,10 +14275,10 @@
     </row>
     <row r="202" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B202" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C202" s="27">
         <v>0</v>
@@ -14099,7 +14289,7 @@
     </row>
     <row r="203" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B203" s="59" t="s">
         <v>24</v>
@@ -14113,10 +14303,10 @@
     </row>
     <row r="204" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B204" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C204" s="27">
         <v>0</v>
@@ -14127,10 +14317,10 @@
     </row>
     <row r="205" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="63" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B205" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C205" s="27">
         <v>1</v>
@@ -14141,7 +14331,7 @@
     </row>
     <row r="206" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="63" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B206" s="59" t="s">
         <v>28</v>
@@ -14155,10 +14345,10 @@
     </row>
     <row r="207" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="63" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B207" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C207" s="27">
         <v>0</v>
@@ -14169,7 +14359,7 @@
     </row>
     <row r="208" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="63" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B208" s="59" t="s">
         <v>25</v>
@@ -14183,10 +14373,10 @@
     </row>
     <row r="209" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="63" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B209" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C209" s="27">
         <v>0</v>
@@ -14197,10 +14387,10 @@
     </row>
     <row r="210" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="63" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B210" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C210" s="27">
         <v>0</v>
@@ -14211,7 +14401,7 @@
     </row>
     <row r="211" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="63" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B211" s="59" t="s">
         <v>24</v>
@@ -14225,10 +14415,10 @@
     </row>
     <row r="212" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B212" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C212" s="6">
         <v>4</v>
@@ -14239,7 +14429,7 @@
     </row>
     <row r="213" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B213" s="59" t="s">
         <v>28</v>
@@ -14253,10 +14443,10 @@
     </row>
     <row r="214" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B214" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C214" s="6">
         <v>0</v>
@@ -14267,7 +14457,7 @@
     </row>
     <row r="215" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B215" s="59" t="s">
         <v>25</v>
@@ -14281,10 +14471,10 @@
     </row>
     <row r="216" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B216" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C216" s="6">
         <v>0</v>
@@ -14295,10 +14485,10 @@
     </row>
     <row r="217" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B217" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C217" s="6">
         <v>0</v>
@@ -14309,7 +14499,7 @@
     </row>
     <row r="218" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B218" s="59" t="s">
         <v>24</v>
@@ -14323,10 +14513,10 @@
     </row>
     <row r="219" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B219" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C219" s="6">
         <v>1</v>
@@ -14340,7 +14530,7 @@
         <v>80</v>
       </c>
       <c r="B220" s="59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C220" s="27">
         <v>7</v>
@@ -14368,7 +14558,7 @@
         <v>80</v>
       </c>
       <c r="B222" s="59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C222" s="27">
         <v>1</v>
@@ -14396,7 +14586,7 @@
         <v>80</v>
       </c>
       <c r="B224" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C224" s="27">
         <v>0</v>
@@ -14410,7 +14600,7 @@
         <v>80</v>
       </c>
       <c r="B225" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C225" s="27">
         <v>0</v>
@@ -14438,7 +14628,7 @@
         <v>80</v>
       </c>
       <c r="B227" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C227" s="27">
         <v>0</v>
@@ -14449,10 +14639,10 @@
     </row>
     <row r="228" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B228" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C228" s="27">
         <v>4</v>
@@ -14463,7 +14653,7 @@
     </row>
     <row r="229" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B229" s="59" t="s">
         <v>28</v>
@@ -14477,10 +14667,10 @@
     </row>
     <row r="230" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B230" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C230" s="27">
         <v>1</v>
@@ -14491,7 +14681,7 @@
     </row>
     <row r="231" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B231" s="59" t="s">
         <v>25</v>
@@ -14505,10 +14695,10 @@
     </row>
     <row r="232" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B232" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C232" s="27">
         <v>3</v>
@@ -14519,10 +14709,10 @@
     </row>
     <row r="233" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B233" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C233" s="27">
         <v>1</v>
@@ -14533,7 +14723,7 @@
     </row>
     <row r="234" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B234" s="59" t="s">
         <v>24</v>
@@ -14547,10 +14737,10 @@
     </row>
     <row r="235" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B235" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C235" s="6">
         <v>0</v>
@@ -14561,7 +14751,7 @@
     </row>
     <row r="236" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B236" s="59" t="s">
         <v>28</v>
@@ -14575,10 +14765,10 @@
     </row>
     <row r="237" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B237" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C237" s="6">
         <v>0</v>
@@ -14589,7 +14779,7 @@
     </row>
     <row r="238" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B238" s="59" t="s">
         <v>25</v>
@@ -14603,10 +14793,10 @@
     </row>
     <row r="239" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B239" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C239" s="6">
         <v>0</v>
@@ -14617,10 +14807,10 @@
     </row>
     <row r="240" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B240" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C240" s="6">
         <v>0</v>
@@ -14631,7 +14821,7 @@
     </row>
     <row r="241" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B241" s="59" t="s">
         <v>24</v>
@@ -14645,10 +14835,10 @@
     </row>
     <row r="242" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B242" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C242" s="6">
         <v>0</v>
@@ -14662,7 +14852,7 @@
         <v>81</v>
       </c>
       <c r="B243" s="59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C243" s="27">
         <v>0</v>
@@ -14690,7 +14880,7 @@
         <v>81</v>
       </c>
       <c r="B245" s="59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C245" s="27">
         <v>0</v>
@@ -14718,7 +14908,7 @@
         <v>81</v>
       </c>
       <c r="B247" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C247" s="27">
         <v>0</v>
@@ -14732,7 +14922,7 @@
         <v>81</v>
       </c>
       <c r="B248" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C248" s="27">
         <v>0</v>
@@ -14760,7 +14950,7 @@
         <v>81</v>
       </c>
       <c r="B250" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C250" s="27">
         <v>0</v>
@@ -14771,10 +14961,10 @@
     </row>
     <row r="251" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B251" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C251" s="27">
         <v>2</v>
@@ -14785,7 +14975,7 @@
     </row>
     <row r="252" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B252" s="59" t="s">
         <v>28</v>
@@ -14799,10 +14989,10 @@
     </row>
     <row r="253" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B253" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C253" s="27">
         <v>1</v>
@@ -14813,7 +15003,7 @@
     </row>
     <row r="254" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B254" s="59" t="s">
         <v>25</v>
@@ -14827,10 +15017,10 @@
     </row>
     <row r="255" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B255" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C255" s="27">
         <v>0</v>
@@ -14841,10 +15031,10 @@
     </row>
     <row r="256" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B256" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C256" s="27">
         <v>0</v>
@@ -14855,7 +15045,7 @@
     </row>
     <row r="257" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B257" s="59" t="s">
         <v>24</v>
@@ -14869,10 +15059,10 @@
     </row>
     <row r="258" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B258" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C258" s="6">
         <v>1</v>
@@ -14883,7 +15073,7 @@
     </row>
     <row r="259" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B259" s="59" t="s">
         <v>28</v>
@@ -14897,10 +15087,10 @@
     </row>
     <row r="260" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B260" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C260" s="6">
         <v>1</v>
@@ -14911,7 +15101,7 @@
     </row>
     <row r="261" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B261" s="59" t="s">
         <v>25</v>
@@ -14925,10 +15115,10 @@
     </row>
     <row r="262" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B262" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C262" s="6">
         <v>0</v>
@@ -14939,10 +15129,10 @@
     </row>
     <row r="263" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B263" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C263" s="6">
         <v>0</v>
@@ -14953,7 +15143,7 @@
     </row>
     <row r="264" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B264" s="59" t="s">
         <v>24</v>
@@ -14967,10 +15157,10 @@
     </row>
     <row r="265" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B265" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C265" s="6">
         <v>1</v>
@@ -14984,7 +15174,7 @@
         <v>82</v>
       </c>
       <c r="B266" s="59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C266" s="27">
         <v>1</v>
@@ -15012,7 +15202,7 @@
         <v>82</v>
       </c>
       <c r="B268" s="59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C268" s="27">
         <v>1</v>
@@ -15040,7 +15230,7 @@
         <v>82</v>
       </c>
       <c r="B270" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C270" s="27">
         <v>1</v>
@@ -15054,7 +15244,7 @@
         <v>82</v>
       </c>
       <c r="B271" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C271" s="27">
         <v>0</v>
@@ -15082,7 +15272,7 @@
         <v>82</v>
       </c>
       <c r="B273" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C273" s="27">
         <v>0</v>
@@ -15093,10 +15283,10 @@
     </row>
     <row r="274" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B274" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C274" s="27">
         <v>3</v>
@@ -15107,7 +15297,7 @@
     </row>
     <row r="275" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B275" s="59" t="s">
         <v>28</v>
@@ -15121,10 +15311,10 @@
     </row>
     <row r="276" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B276" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C276" s="27">
         <v>1</v>
@@ -15135,7 +15325,7 @@
     </row>
     <row r="277" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B277" s="59" t="s">
         <v>25</v>
@@ -15149,10 +15339,10 @@
     </row>
     <row r="278" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B278" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C278" s="27">
         <v>0</v>
@@ -15163,10 +15353,10 @@
     </row>
     <row r="279" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B279" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C279" s="27">
         <v>0</v>
@@ -15177,7 +15367,7 @@
     </row>
     <row r="280" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B280" s="59" t="s">
         <v>24</v>
@@ -15191,10 +15381,10 @@
     </row>
     <row r="281" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B281" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C281" s="6">
         <v>7</v>
@@ -15205,7 +15395,7 @@
     </row>
     <row r="282" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B282" s="59" t="s">
         <v>28</v>
@@ -15219,10 +15409,10 @@
     </row>
     <row r="283" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B283" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C283" s="6">
         <v>0</v>
@@ -15233,7 +15423,7 @@
     </row>
     <row r="284" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B284" s="59" t="s">
         <v>25</v>
@@ -15247,10 +15437,10 @@
     </row>
     <row r="285" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B285" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C285" s="6">
         <v>0</v>
@@ -15261,10 +15451,10 @@
     </row>
     <row r="286" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B286" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C286" s="6">
         <v>1</v>
@@ -15275,7 +15465,7 @@
     </row>
     <row r="287" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B287" s="59" t="s">
         <v>24</v>
@@ -15289,10 +15479,10 @@
     </row>
     <row r="288" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B288" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C288" s="6">
         <v>4</v>
@@ -15306,7 +15496,7 @@
         <v>83</v>
       </c>
       <c r="B289" s="59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C289" s="27">
         <v>9</v>
@@ -15334,7 +15524,7 @@
         <v>83</v>
       </c>
       <c r="B291" s="59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C291" s="27">
         <v>3</v>
@@ -15362,7 +15552,7 @@
         <v>83</v>
       </c>
       <c r="B293" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C293" s="27">
         <v>0</v>
@@ -15376,7 +15566,7 @@
         <v>83</v>
       </c>
       <c r="B294" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C294" s="27">
         <v>1</v>
@@ -15404,7 +15594,7 @@
         <v>83</v>
       </c>
       <c r="B296" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C296" s="27">
         <v>0</v>
@@ -15415,10 +15605,10 @@
     </row>
     <row r="297" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B297" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C297" s="27">
         <v>6</v>
@@ -15429,7 +15619,7 @@
     </row>
     <row r="298" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B298" s="59" t="s">
         <v>28</v>
@@ -15443,10 +15633,10 @@
     </row>
     <row r="299" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B299" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C299" s="27">
         <v>3</v>
@@ -15457,7 +15647,7 @@
     </row>
     <row r="300" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B300" s="59" t="s">
         <v>25</v>
@@ -15471,10 +15661,10 @@
     </row>
     <row r="301" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B301" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C301" s="27">
         <v>0</v>
@@ -15485,10 +15675,10 @@
     </row>
     <row r="302" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B302" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C302" s="27">
         <v>0</v>
@@ -15499,7 +15689,7 @@
     </row>
     <row r="303" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B303" s="59" t="s">
         <v>24</v>
@@ -15513,10 +15703,10 @@
     </row>
     <row r="304" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B304" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C304" s="6">
         <v>4</v>
@@ -15527,7 +15717,7 @@
     </row>
     <row r="305" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" s="64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B305" s="59" t="s">
         <v>28</v>
@@ -15541,10 +15731,10 @@
     </row>
     <row r="306" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B306" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C306" s="6">
         <v>1</v>
@@ -15555,7 +15745,7 @@
     </row>
     <row r="307" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B307" s="59" t="s">
         <v>25</v>
@@ -15569,10 +15759,10 @@
     </row>
     <row r="308" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" s="62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B308" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C308" s="6">
         <v>0</v>
@@ -15583,10 +15773,10 @@
     </row>
     <row r="309" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B309" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C309" s="6">
         <v>1</v>
@@ -15597,7 +15787,7 @@
     </row>
     <row r="310" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B310" s="59" t="s">
         <v>24</v>
@@ -15611,10 +15801,10 @@
     </row>
     <row r="311" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" s="62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B311" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C311" s="6">
         <v>5</v>
@@ -15628,7 +15818,7 @@
         <v>84</v>
       </c>
       <c r="B312" s="59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C312" s="27">
         <v>4</v>
@@ -15656,7 +15846,7 @@
         <v>84</v>
       </c>
       <c r="B314" s="59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C314" s="27">
         <v>1</v>
@@ -15684,7 +15874,7 @@
         <v>84</v>
       </c>
       <c r="B316" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C316" s="27">
         <v>0</v>
@@ -15698,7 +15888,7 @@
         <v>84</v>
       </c>
       <c r="B317" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C317" s="27">
         <v>0</v>
@@ -15726,7 +15916,7 @@
         <v>84</v>
       </c>
       <c r="B319" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C319" s="27">
         <v>0</v>
@@ -15737,10 +15927,10 @@
     </row>
     <row r="320" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" s="63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B320" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C320" s="27">
         <v>7</v>
@@ -15751,7 +15941,7 @@
     </row>
     <row r="321" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" s="63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B321" s="59" t="s">
         <v>28</v>
@@ -15765,10 +15955,10 @@
     </row>
     <row r="322" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B322" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C322" s="27">
         <v>1</v>
@@ -15779,7 +15969,7 @@
     </row>
     <row r="323" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" s="63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B323" s="59" t="s">
         <v>25</v>
@@ -15793,10 +15983,10 @@
     </row>
     <row r="324" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A324" s="63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B324" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C324" s="27">
         <v>0</v>
@@ -15807,10 +15997,10 @@
     </row>
     <row r="325" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A325" s="63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B325" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C325" s="27">
         <v>1</v>
@@ -15821,7 +16011,7 @@
     </row>
     <row r="326" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B326" s="59" t="s">
         <v>24</v>
@@ -15835,10 +16025,10 @@
     </row>
     <row r="327" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" s="64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B327" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C327" s="6">
         <v>6</v>
@@ -15849,7 +16039,7 @@
     </row>
     <row r="328" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A328" s="64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B328" s="59" t="s">
         <v>28</v>
@@ -15863,10 +16053,10 @@
     </row>
     <row r="329" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A329" s="62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B329" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C329" s="6">
         <v>0</v>
@@ -15877,7 +16067,7 @@
     </row>
     <row r="330" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A330" s="62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B330" s="59" t="s">
         <v>25</v>
@@ -15891,10 +16081,10 @@
     </row>
     <row r="331" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A331" s="62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B331" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C331" s="6">
         <v>1</v>
@@ -15905,10 +16095,10 @@
     </row>
     <row r="332" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A332" s="62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B332" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C332" s="6">
         <v>0</v>
@@ -15919,7 +16109,7 @@
     </row>
     <row r="333" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A333" s="62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B333" s="59" t="s">
         <v>24</v>
@@ -15933,10 +16123,10 @@
     </row>
     <row r="334" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A334" s="62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B334" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C334" s="6">
         <v>4</v>
@@ -15950,7 +16140,7 @@
         <v>85</v>
       </c>
       <c r="B335" s="59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C335" s="27">
         <v>8</v>
@@ -15978,7 +16168,7 @@
         <v>85</v>
       </c>
       <c r="B337" s="59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C337" s="27">
         <v>1</v>
@@ -16006,7 +16196,7 @@
         <v>85</v>
       </c>
       <c r="B339" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C339" s="27">
         <v>1</v>
@@ -16020,7 +16210,7 @@
         <v>85</v>
       </c>
       <c r="B340" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C340" s="27">
         <v>1</v>
@@ -16048,7 +16238,7 @@
         <v>85</v>
       </c>
       <c r="B342" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C342" s="27">
         <v>3</v>
@@ -16059,10 +16249,10 @@
     </row>
     <row r="343" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A343" s="63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B343" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C343" s="27">
         <v>3</v>
@@ -16073,7 +16263,7 @@
     </row>
     <row r="344" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A344" s="63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B344" s="59" t="s">
         <v>28</v>
@@ -16087,10 +16277,10 @@
     </row>
     <row r="345" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A345" s="63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B345" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C345" s="27">
         <v>4</v>
@@ -16101,7 +16291,7 @@
     </row>
     <row r="346" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A346" s="63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B346" s="59" t="s">
         <v>25</v>
@@ -16115,10 +16305,10 @@
     </row>
     <row r="347" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A347" s="63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B347" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C347" s="27">
         <v>1</v>
@@ -16129,10 +16319,10 @@
     </row>
     <row r="348" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A348" s="63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B348" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C348" s="27">
         <v>0</v>
@@ -16143,7 +16333,7 @@
     </row>
     <row r="349" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A349" s="63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B349" s="59" t="s">
         <v>24</v>
@@ -16157,10 +16347,10 @@
     </row>
     <row r="350" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A350" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B350" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C350" s="6">
         <v>4</v>
@@ -16171,7 +16361,7 @@
     </row>
     <row r="351" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A351" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B351" s="59" t="s">
         <v>28</v>
@@ -16185,10 +16375,10 @@
     </row>
     <row r="352" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A352" s="62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B352" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C352" s="6">
         <v>0</v>
@@ -16199,7 +16389,7 @@
     </row>
     <row r="353" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A353" s="62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B353" s="59" t="s">
         <v>25</v>
@@ -16213,10 +16403,10 @@
     </row>
     <row r="354" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A354" s="62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B354" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C354" s="6">
         <v>1</v>
@@ -16227,10 +16417,10 @@
     </row>
     <row r="355" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A355" s="62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B355" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C355" s="6">
         <v>1</v>
@@ -16241,7 +16431,7 @@
     </row>
     <row r="356" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A356" s="62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B356" s="59" t="s">
         <v>24</v>
@@ -16255,10 +16445,10 @@
     </row>
     <row r="357" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A357" s="62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B357" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C357" s="6">
         <v>3</v>
@@ -16272,7 +16462,7 @@
         <v>86</v>
       </c>
       <c r="B358" s="59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C358" s="27">
         <v>6</v>
@@ -16300,7 +16490,7 @@
         <v>86</v>
       </c>
       <c r="B360" s="59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C360" s="27">
         <v>0</v>
@@ -16328,7 +16518,7 @@
         <v>86</v>
       </c>
       <c r="B362" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C362" s="27">
         <v>1</v>
@@ -16342,7 +16532,7 @@
         <v>86</v>
       </c>
       <c r="B363" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C363" s="27">
         <v>0</v>
@@ -16370,7 +16560,7 @@
         <v>86</v>
       </c>
       <c r="B365" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C365" s="27">
         <v>0</v>
@@ -16381,10 +16571,10 @@
     </row>
     <row r="366" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A366" s="63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B366" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C366" s="27">
         <v>7</v>
@@ -16395,7 +16585,7 @@
     </row>
     <row r="367" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A367" s="63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B367" s="59" t="s">
         <v>28</v>
@@ -16409,10 +16599,10 @@
     </row>
     <row r="368" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A368" s="63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B368" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C368" s="27">
         <v>2</v>
@@ -16423,7 +16613,7 @@
     </row>
     <row r="369" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A369" s="63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B369" s="59" t="s">
         <v>25</v>
@@ -16437,10 +16627,10 @@
     </row>
     <row r="370" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A370" s="63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B370" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C370" s="27">
         <v>2</v>
@@ -16451,10 +16641,10 @@
     </row>
     <row r="371" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A371" s="63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B371" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C371" s="27">
         <v>1</v>
@@ -16465,7 +16655,7 @@
     </row>
     <row r="372" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A372" s="63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B372" s="59" t="s">
         <v>24</v>
@@ -16479,10 +16669,10 @@
     </row>
     <row r="373" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A373" s="64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B373" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C373" s="6">
         <v>3</v>
@@ -16493,7 +16683,7 @@
     </row>
     <row r="374" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A374" s="64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B374" s="59" t="s">
         <v>28</v>
@@ -16507,10 +16697,10 @@
     </row>
     <row r="375" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A375" s="62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B375" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C375" s="6">
         <v>0</v>
@@ -16521,7 +16711,7 @@
     </row>
     <row r="376" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A376" s="62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B376" s="59" t="s">
         <v>25</v>
@@ -16535,10 +16725,10 @@
     </row>
     <row r="377" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A377" s="62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B377" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C377" s="6">
         <v>0</v>
@@ -16549,10 +16739,10 @@
     </row>
     <row r="378" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A378" s="62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B378" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C378" s="6">
         <v>0</v>
@@ -16563,7 +16753,7 @@
     </row>
     <row r="379" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A379" s="62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B379" s="59" t="s">
         <v>24</v>
@@ -16577,10 +16767,10 @@
     </row>
     <row r="380" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A380" s="62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B380" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C380" s="6">
         <v>3</v>
@@ -16594,7 +16784,7 @@
         <v>87</v>
       </c>
       <c r="B381" s="59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C381" s="27">
         <v>3</v>
@@ -16622,7 +16812,7 @@
         <v>87</v>
       </c>
       <c r="B383" s="59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C383" s="27">
         <v>1</v>
@@ -16650,7 +16840,7 @@
         <v>87</v>
       </c>
       <c r="B385" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C385" s="27">
         <v>0</v>
@@ -16664,7 +16854,7 @@
         <v>87</v>
       </c>
       <c r="B386" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C386" s="27">
         <v>0</v>
@@ -16692,7 +16882,7 @@
         <v>87</v>
       </c>
       <c r="B388" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C388" s="27">
         <v>0</v>
@@ -16703,10 +16893,10 @@
     </row>
     <row r="389" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A389" s="63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B389" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C389" s="27">
         <v>2</v>
@@ -16717,7 +16907,7 @@
     </row>
     <row r="390" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A390" s="63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B390" s="59" t="s">
         <v>28</v>
@@ -16731,10 +16921,10 @@
     </row>
     <row r="391" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A391" s="63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B391" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C391" s="27">
         <v>1</v>
@@ -16745,7 +16935,7 @@
     </row>
     <row r="392" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A392" s="63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B392" s="59" t="s">
         <v>25</v>
@@ -16759,10 +16949,10 @@
     </row>
     <row r="393" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A393" s="63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B393" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C393" s="27">
         <v>0</v>
@@ -16773,10 +16963,10 @@
     </row>
     <row r="394" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A394" s="63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B394" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C394" s="27">
         <v>0</v>
@@ -16787,7 +16977,7 @@
     </row>
     <row r="395" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A395" s="63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B395" s="59" t="s">
         <v>24</v>
@@ -16801,10 +16991,10 @@
     </row>
     <row r="396" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A396" s="64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B396" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C396" s="6">
         <v>12</v>
@@ -16815,7 +17005,7 @@
     </row>
     <row r="397" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A397" s="64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B397" s="59" t="s">
         <v>28</v>
@@ -16829,10 +17019,10 @@
     </row>
     <row r="398" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A398" s="62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B398" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C398" s="6">
         <v>1</v>
@@ -16843,7 +17033,7 @@
     </row>
     <row r="399" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A399" s="62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B399" s="59" t="s">
         <v>25</v>
@@ -16857,10 +17047,10 @@
     </row>
     <row r="400" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A400" s="62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B400" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C400" s="6">
         <v>2</v>
@@ -16871,10 +17061,10 @@
     </row>
     <row r="401" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A401" s="62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B401" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C401" s="6">
         <v>1</v>
@@ -16885,7 +17075,7 @@
     </row>
     <row r="402" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A402" s="62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B402" s="59" t="s">
         <v>24</v>
@@ -16899,10 +17089,10 @@
     </row>
     <row r="403" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A403" s="62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B403" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C403" s="6">
         <v>11</v>
@@ -16916,7 +17106,7 @@
         <v>46</v>
       </c>
       <c r="B404" s="59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C404" s="27">
         <v>9</v>
@@ -16944,7 +17134,7 @@
         <v>46</v>
       </c>
       <c r="B406" s="59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C406" s="27">
         <v>3</v>
@@ -16972,7 +17162,7 @@
         <v>46</v>
       </c>
       <c r="B408" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C408" s="27">
         <v>3</v>
@@ -16986,7 +17176,7 @@
         <v>46</v>
       </c>
       <c r="B409" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C409" s="27">
         <v>0</v>
@@ -17014,7 +17204,7 @@
         <v>46</v>
       </c>
       <c r="B411" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C411" s="27">
         <v>7</v>
@@ -17025,10 +17215,10 @@
     </row>
     <row r="412" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A412" s="63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B412" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C412" s="27">
         <v>15</v>
@@ -17039,7 +17229,7 @@
     </row>
     <row r="413" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A413" s="63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B413" s="59" t="s">
         <v>28</v>
@@ -17053,10 +17243,10 @@
     </row>
     <row r="414" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A414" s="63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B414" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C414" s="27">
         <v>7</v>
@@ -17067,7 +17257,7 @@
     </row>
     <row r="415" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A415" s="63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B415" s="59" t="s">
         <v>25</v>
@@ -17081,10 +17271,10 @@
     </row>
     <row r="416" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A416" s="63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B416" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C416" s="27">
         <v>0</v>
@@ -17095,10 +17285,10 @@
     </row>
     <row r="417" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A417" s="63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B417" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C417" s="27">
         <v>1</v>
@@ -17109,7 +17299,7 @@
     </row>
     <row r="418" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A418" s="67" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B418" s="61" t="s">
         <v>24</v>

--- a/HONDURAS/Delitos/UNAH/UNAH.xlsx
+++ b/HONDURAS/Delitos/UNAH/UNAH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\HONDURAS\Delitos\UNAH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\HONDURAS\Delitos\UNAH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2460F932-E46B-43A2-BD8D-AE9F5917C851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB67D991-8A12-41D4-B6D1-E03AEA68BA07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{18233244-913E-489D-9A24-1D1BD1406925}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{18233244-913E-489D-9A24-1D1BD1406925}"/>
   </bookViews>
   <sheets>
     <sheet name="Muerte por violencia intenciosa" sheetId="1" r:id="rId1"/>
@@ -30,21 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="285">
   <si>
     <t>Año</t>
   </si>
@@ -1224,9 +1215,6 @@
     <t>otro</t>
   </si>
   <si>
-    <t>Muerte violenta de mujeres sin determinar</t>
-  </si>
-  <si>
     <t>Sin determinar</t>
   </si>
   <si>
@@ -1343,7 +1331,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1767,7 +1755,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - Énfasis2" xfId="1" builtinId="35"/>
@@ -1775,9 +1763,6 @@
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="37">
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000000"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
@@ -2337,6 +2322,9 @@
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2362,31 +2350,31 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{E87915A2-3410-4142-9D41-8168D294C509}" name="muerte_barrio_colonia" displayName="muerte_barrio_colonia" ref="A4:G66" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{E87915A2-3410-4142-9D41-8168D294C509}" name="muerte_barrio_colonia" displayName="muerte_barrio_colonia" ref="A4:G66" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A4:G66" xr:uid="{18D08BDF-4D4F-4BAC-86F9-A206C81B56C8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:F28">
     <sortCondition ref="B4:B28"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="6" xr3:uid="{FFD6658D-426E-456A-9B54-B8A1F6284ABA}" name="Código departamento" dataDxfId="12"/>
-    <tableColumn id="1" xr3:uid="{302F6C22-BF4D-46DE-B5B0-13C406A05783}" name="Departamento" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{A9748BEC-5EA5-4FDF-A985-20802CCC0F68}" name="Código municipio" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{928EC9B2-E18B-421D-A75B-288BB3268453}" name="Municipio" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{27206C2E-57E6-485F-98AE-A5F38C4F48CA}" name="Barrio/Colonia/Aldea" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{30F1850A-34EC-44EE-8525-E3AE1F96C733}" name="Muertes" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{473908AC-EDCD-4F83-87A4-AF2199D5990F}" name="Año" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{FFD6658D-426E-456A-9B54-B8A1F6284ABA}" name="Código departamento" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{302F6C22-BF4D-46DE-B5B0-13C406A05783}" name="Departamento" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{A9748BEC-5EA5-4FDF-A985-20802CCC0F68}" name="Código municipio" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{928EC9B2-E18B-421D-A75B-288BB3268453}" name="Municipio" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{27206C2E-57E6-485F-98AE-A5F38C4F48CA}" name="Barrio/Colonia/Aldea" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{30F1850A-34EC-44EE-8525-E3AE1F96C733}" name="Muertes" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{473908AC-EDCD-4F83-87A4-AF2199D5990F}" name="Año" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{07B61D1B-46EA-4D59-85CE-987E481270C8}" name="muerte_tipo_arma" displayName="muerte_tipo_arma" ref="A4:C26" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowCellStyle="40% - Énfasis2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{07B61D1B-46EA-4D59-85CE-987E481270C8}" name="muerte_tipo_arma" displayName="muerte_tipo_arma" ref="A4:C26" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="40% - Énfasis2">
   <autoFilter ref="A4:C26" xr:uid="{A9F5E053-1D82-474D-93BF-8E8A7A10DD6F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6F8BA277-FF2F-4557-8757-9E7BF4EB0059}" name="Tipo de arma" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{1C400C88-F9FA-4B8C-9F67-6B83012C9F6F}" name="Muertes" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{0FE7F24A-9ABC-46C9-8CD2-E8AD9C3CD033}" name="Año" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{6F8BA277-FF2F-4557-8757-9E7BF4EB0059}" name="Tipo de arma" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{1C400C88-F9FA-4B8C-9F67-6B83012C9F6F}" name="Muertes" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{0FE7F24A-9ABC-46C9-8CD2-E8AD9C3CD033}" name="Año" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2426,7 +2414,7 @@
     <tableColumn id="1" xr3:uid="{49E4164F-31A8-4DC8-96A4-1EB4EA68B7C2}" name="Causa"/>
     <tableColumn id="2" xr3:uid="{EADB1B4E-D842-4D6D-8203-B67FC221F31A}" name="Muertes"/>
     <tableColumn id="3" xr3:uid="{4412286B-F0DC-4C0B-90DE-70C7042A69E2}" name="Año"/>
-    <tableColumn id="4" xr3:uid="{3E556013-5827-48C9-9B36-1E528D4904B9}" name="Porcentaje del total de muertes" dataDxfId="0" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{3E556013-5827-48C9-9B36-1E528D4904B9}" name="Porcentaje del total de muertes" dataDxfId="36" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2445,12 +2433,12 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{461BBA50-52E9-42CB-ADA9-38611E17A3B7}" name="muerte_grupo_edad" displayName="muerte_grupo_edad" ref="A4:C139" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{461BBA50-52E9-42CB-ADA9-38611E17A3B7}" name="muerte_grupo_edad" displayName="muerte_grupo_edad" ref="A4:C139" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A4:C139" xr:uid="{CFC71BC2-DD92-490C-9ECC-395525948865}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CBB527C0-BFAE-4C96-BC96-50AD563105AC}" name="Rango de Edad" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{2C1EB36D-D97B-4FA6-8CBC-B91E81AD1732}" name="Muertes" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{3752033F-83B8-4C10-BE61-4DED8BE4AD50}" name="Año" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{CBB527C0-BFAE-4C96-BC96-50AD563105AC}" name="Rango de Edad" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{2C1EB36D-D97B-4FA6-8CBC-B91E81AD1732}" name="Muertes" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{3752033F-83B8-4C10-BE61-4DED8BE4AD50}" name="Año" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2460,16 +2448,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C3A8176E-DF49-41F5-8FD4-4E22F0C26D75}" name="muertes_depto" displayName="muertes_depto" ref="A4:C131" totalsRowShown="0">
   <autoFilter ref="A4:C131" xr:uid="{C946F0B0-8166-4C0A-9D92-CB54EE67E193}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9BAAA5C3-C8AD-4BAD-80EE-42D2B631917D}" name="Departamento" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{8C4FB825-9689-4EF5-8C52-4D9168A6EB03}" name="Muertes" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{F58F0368-E478-459C-B132-2A8FBD9D694F}" name="Año" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{9BAAA5C3-C8AD-4BAD-80EE-42D2B631917D}" name="Departamento" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{8C4FB825-9689-4EF5-8C52-4D9168A6EB03}" name="Muertes" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{F58F0368-E478-459C-B132-2A8FBD9D694F}" name="Año" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{50236053-21DA-4653-A6E4-CA237431B4A5}" name="muerte_lugar" displayName="muerte_lugar" ref="A4:C84" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{50236053-21DA-4653-A6E4-CA237431B4A5}" name="muerte_lugar" displayName="muerte_lugar" ref="A4:C84" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A4:C84" xr:uid="{FF710700-3D69-4999-8C1A-A4C1A31C32A6}">
     <filterColumn colId="0">
       <filters>
@@ -2492,25 +2480,25 @@
     <sortCondition ref="A4:A84"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AD955B3F-723D-4E87-BAF8-10DD7106FD01}" name="Lugar" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{F647492F-C468-4B3F-876D-1E3CDDE40CAD}" name="Muertes" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{8774F74B-DA6C-416F-A805-D4F744B76955}" name="Año" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{AD955B3F-723D-4E87-BAF8-10DD7106FD01}" name="Lugar" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{F647492F-C468-4B3F-876D-1E3CDDE40CAD}" name="Muertes" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{8774F74B-DA6C-416F-A805-D4F744B76955}" name="Año" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{0ABDC39D-3DAD-4F80-8F96-1547FB6219B3}" name="muerte_depto_tipo" displayName="muerte_depto_tipo" ref="A4:D418" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{0ABDC39D-3DAD-4F80-8F96-1547FB6219B3}" name="muerte_depto_tipo" displayName="muerte_depto_tipo" ref="A4:D418" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="A4:D418" xr:uid="{69C6564C-58E0-4D7C-88E2-A6244DDF6DDE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D418">
     <sortCondition ref="A4:A418"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3396DEB9-7D76-43CE-8D1A-9F830D3BA504}" name="Departamento" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{16B54035-6858-4CD5-807A-FCD00FAE109D}" name="Causa de Muerte" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{C32D0D3A-8BC4-4ED1-A06C-5A289F966A93}" name="Muertes " dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{B84B5409-AAB2-4BC8-836F-BF50A80435EB}" name="Año" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{3396DEB9-7D76-43CE-8D1A-9F830D3BA504}" name="Departamento" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{16B54035-6858-4CD5-807A-FCD00FAE109D}" name="Causa de Muerte" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{C32D0D3A-8BC4-4ED1-A06C-5A289F966A93}" name="Muertes " dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{B84B5409-AAB2-4BC8-836F-BF50A80435EB}" name="Año" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4394,7 +4382,7 @@
   <sheetData>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>4</v>
@@ -4405,7 +4393,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="78" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5" s="79">
         <v>318</v>
@@ -4416,7 +4404,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="78" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B6" s="79">
         <v>75</v>
@@ -4427,7 +4415,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="78" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7" s="79">
         <v>42</v>
@@ -4438,7 +4426,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" s="79">
         <v>24</v>
@@ -4449,7 +4437,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B9" s="79">
         <v>1</v>
@@ -4460,7 +4448,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B10" s="79">
         <v>3</v>
@@ -4471,7 +4459,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B11" s="79">
         <v>6</v>
@@ -4482,7 +4470,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B12" s="79">
         <v>309</v>
@@ -4493,7 +4481,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="78" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B13" s="79">
         <v>68</v>
@@ -4504,7 +4492,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="78" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B14" s="79">
         <v>43</v>
@@ -4515,7 +4503,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="78" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B15" s="79">
         <v>12</v>
@@ -4526,7 +4514,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="78" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B16" s="79">
         <v>5</v>
@@ -4537,7 +4525,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="78" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B17" s="79">
         <v>2</v>
@@ -4548,7 +4536,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="78" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B18" s="79">
         <v>1</v>
@@ -4559,7 +4547,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="78" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B19" s="79">
         <v>239</v>
@@ -4570,7 +4558,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="78" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B20" s="79">
         <v>56</v>
@@ -4581,7 +4569,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="78" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B21" s="79">
         <v>38</v>
@@ -4592,7 +4580,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B22" s="79">
         <v>28</v>
@@ -4603,7 +4591,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="78" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B23" s="79">
         <v>2</v>
@@ -4614,7 +4602,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="78" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B24" s="79">
         <v>1</v>
@@ -4625,7 +4613,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="78" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B25" s="79">
         <v>1</v>
@@ -4636,7 +4624,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="78" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B26" s="79">
         <v>2</v>
@@ -5498,7 +5486,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B78" s="36">
         <v>44</v>
@@ -5630,7 +5618,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B90" s="36">
         <v>37</v>
@@ -5762,7 +5750,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B102" s="29">
         <v>38</v>
@@ -5894,7 +5882,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B114" s="29">
         <v>30</v>
@@ -6272,12 +6260,12 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B4">
         <v>34</v>
@@ -6291,7 +6279,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -6305,7 +6293,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B6">
         <v>49</v>
@@ -6319,7 +6307,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -6347,7 +6335,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B9">
         <v>35</v>
@@ -6361,7 +6349,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -6375,7 +6363,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -6389,7 +6377,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B12" s="5">
         <v>5</v>
@@ -6403,7 +6391,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B13" s="5">
         <v>10</v>
@@ -6417,7 +6405,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
@@ -6431,7 +6419,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B15">
         <v>190</v>
@@ -6445,7 +6433,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B16" s="5">
         <v>118</v>
@@ -6459,7 +6447,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B17" s="5">
         <v>88</v>
@@ -6473,7 +6461,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B18" s="5">
         <v>81</v>
@@ -6487,7 +6475,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B19">
         <v>14</v>
@@ -6557,7 +6545,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B24">
         <v>22</v>
@@ -6571,7 +6559,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B25" s="5">
         <v>22</v>
@@ -6585,7 +6573,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B26" s="5">
         <v>18</v>
@@ -6599,7 +6587,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B27" s="5">
         <v>14</v>
@@ -6613,7 +6601,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B28">
         <v>17</v>
@@ -6627,7 +6615,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B29">
         <v>13</v>
@@ -6641,7 +6629,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B30">
         <v>39</v>
@@ -6655,7 +6643,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B31" s="82">
         <v>100</v>
@@ -6669,7 +6657,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B32" s="17">
         <v>408</v>
@@ -6683,7 +6671,7 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B33" s="81">
         <v>290</v>
@@ -6697,7 +6685,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B34" s="5">
         <v>50</v>
@@ -6711,7 +6699,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B35" s="5">
         <v>49</v>
@@ -6725,7 +6713,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B36" s="5">
         <v>39</v>
@@ -6865,7 +6853,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B46">
         <v>194</v>
@@ -6879,7 +6867,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B47">
         <v>267</v>
@@ -6893,7 +6881,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B48" s="33">
         <v>55</v>
@@ -6907,7 +6895,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B49" s="40">
         <v>69</v>
@@ -6921,7 +6909,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B50" s="33">
         <v>60</v>
@@ -6935,7 +6923,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B51">
         <v>71</v>
@@ -6949,7 +6937,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B52">
         <v>83</v>
@@ -6963,7 +6951,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B53">
         <v>102</v>
@@ -6977,7 +6965,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B54">
         <v>970</v>
@@ -6991,7 +6979,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B55">
         <v>75</v>
@@ -7005,7 +6993,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B56" s="15">
         <v>151</v>
@@ -7019,7 +7007,7 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B57" s="80">
         <v>134</v>
@@ -7033,7 +7021,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B58">
         <v>167</v>
@@ -7047,7 +7035,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B59" s="5">
         <v>93</v>
@@ -7061,7 +7049,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B60" s="5">
         <v>75</v>
@@ -7650,7 +7638,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B5" s="46">
         <v>4</v>
@@ -7661,7 +7649,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B6" s="46">
         <v>6</v>
@@ -7815,7 +7803,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B20" s="46">
         <v>3</v>
@@ -7826,7 +7814,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B21" s="46">
         <v>7</v>
@@ -7980,7 +7968,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B35" s="46">
         <v>11</v>
@@ -7991,7 +7979,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B36" s="46">
         <v>3</v>
@@ -8145,7 +8133,7 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B50" s="47">
         <v>7</v>
@@ -8156,7 +8144,7 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B51" s="47">
         <v>6</v>
@@ -8310,7 +8298,7 @@
     </row>
     <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B65" s="47">
         <v>18</v>
@@ -8321,7 +8309,7 @@
     </row>
     <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B66" s="47">
         <v>5</v>
@@ -8475,7 +8463,7 @@
     </row>
     <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B80" s="47">
         <v>17</v>
@@ -8486,7 +8474,7 @@
     </row>
     <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B81" s="47">
         <v>4</v>
@@ -8640,7 +8628,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B95" s="48">
         <v>13</v>
@@ -8651,7 +8639,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B96" s="48">
         <v>5</v>
@@ -8805,7 +8793,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B110" s="48">
         <v>8</v>
@@ -8816,7 +8804,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B111" s="48">
         <v>4</v>
@@ -8970,7 +8958,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B125" s="48">
         <v>9</v>
@@ -8981,7 +8969,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B126" s="48">
         <v>2</v>
@@ -10578,7 +10566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E10C05C-44F6-4121-8B5F-1AEC22D9703D}">
   <dimension ref="A4:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -10831,7 +10819,7 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="55" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B26" s="57">
         <v>1</v>
@@ -10864,7 +10852,7 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B29" s="47">
         <v>3</v>
@@ -10908,7 +10896,7 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B33" s="57">
         <v>4</v>
@@ -10941,7 +10929,7 @@
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B36" s="57">
         <v>19</v>
@@ -10974,7 +10962,7 @@
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B39" s="57">
         <v>15</v>
@@ -10996,7 +10984,7 @@
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B41" s="57">
         <v>20</v>
@@ -11007,7 +10995,7 @@
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B42" s="57">
         <v>22</v>
@@ -11029,7 +11017,7 @@
     </row>
     <row r="44" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B44" s="57">
         <v>10</v>
@@ -11051,7 +11039,7 @@
     </row>
     <row r="46" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="55" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B46" s="57">
         <v>15</v>
@@ -11062,7 +11050,7 @@
     </row>
     <row r="47" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B47" s="57">
         <v>9</v>
@@ -11073,7 +11061,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B48" s="57">
         <v>8</v>
@@ -11095,7 +11083,7 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="55" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B50" s="57">
         <v>6</v>
@@ -11106,7 +11094,7 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B51" s="57">
         <v>3</v>
@@ -11117,7 +11105,7 @@
     </row>
     <row r="52" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B52" s="57">
         <v>1</v>
@@ -11183,7 +11171,7 @@
     </row>
     <row r="58" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B58" s="57">
         <v>22</v>
@@ -11205,7 +11193,7 @@
     </row>
     <row r="60" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="55" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B60" s="57">
         <v>12</v>
@@ -11216,7 +11204,7 @@
     </row>
     <row r="61" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B61" s="57">
         <v>8</v>
@@ -11227,7 +11215,7 @@
     </row>
     <row r="62" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B62" s="57">
         <v>6</v>
@@ -11249,7 +11237,7 @@
     </row>
     <row r="64" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="55" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B64" s="57">
         <v>3</v>
@@ -11260,7 +11248,7 @@
     </row>
     <row r="65" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B65" s="57">
         <v>3</v>
@@ -11271,7 +11259,7 @@
     </row>
     <row r="66" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B66" s="57">
         <v>2</v>
@@ -11359,7 +11347,7 @@
     </row>
     <row r="74" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B74" s="57">
         <v>12</v>
@@ -11381,7 +11369,7 @@
     </row>
     <row r="76" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="55" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B76" s="57">
         <v>12</v>
@@ -11392,7 +11380,7 @@
     </row>
     <row r="77" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B77" s="57">
         <v>7</v>
@@ -11403,7 +11391,7 @@
     </row>
     <row r="78" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B78" s="57">
         <v>15</v>
@@ -11425,7 +11413,7 @@
     </row>
     <row r="80" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B80" s="57">
         <v>3</v>
@@ -11436,7 +11424,7 @@
     </row>
     <row r="81" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B81" s="57">
         <v>1</v>
@@ -11490,8 +11478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C86918-EF20-4B0C-9DA5-4770B7F64ADA}">
   <dimension ref="A4:D418"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B406" sqref="B406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11632,7 +11620,7 @@
         <v>145</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="C13" s="27">
         <v>6</v>
@@ -11660,7 +11648,7 @@
         <v>145</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="C15" s="27">
         <v>6</v>
@@ -11954,7 +11942,7 @@
         <v>47</v>
       </c>
       <c r="B36" s="61" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="C36" s="27">
         <v>2</v>
@@ -11982,7 +11970,7 @@
         <v>47</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="C38" s="27">
         <v>0</v>
@@ -12276,7 +12264,7 @@
         <v>73</v>
       </c>
       <c r="B59" s="61" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="C59" s="27">
         <v>3</v>
@@ -12304,7 +12292,7 @@
         <v>73</v>
       </c>
       <c r="B61" s="61" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="C61" s="27">
         <v>2</v>
@@ -12598,7 +12586,7 @@
         <v>74</v>
       </c>
       <c r="B82" s="61" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="C82" s="27">
         <v>10</v>
@@ -12626,7 +12614,7 @@
         <v>74</v>
       </c>
       <c r="B84" s="61" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="C84" s="27">
         <v>2</v>
@@ -12920,7 +12908,7 @@
         <v>75</v>
       </c>
       <c r="B105" s="61" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="C105" s="27">
         <v>10</v>
@@ -12948,7 +12936,7 @@
         <v>75</v>
       </c>
       <c r="B107" s="61" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="C107" s="27">
         <v>1</v>
@@ -13242,7 +13230,7 @@
         <v>76</v>
       </c>
       <c r="B128" s="61" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="C128" s="27">
         <v>45</v>
@@ -13270,7 +13258,7 @@
         <v>76</v>
       </c>
       <c r="B130" s="61" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="C130" s="27">
         <v>36</v>
@@ -13563,8 +13551,8 @@
       <c r="A151" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="B151" s="59" t="s">
-        <v>248</v>
+      <c r="B151" s="61" t="s">
+        <v>138</v>
       </c>
       <c r="C151" s="27">
         <v>5</v>
@@ -13591,8 +13579,8 @@
       <c r="A153" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="B153" s="59" t="s">
-        <v>249</v>
+      <c r="B153" s="61" t="s">
+        <v>137</v>
       </c>
       <c r="C153" s="27">
         <v>0</v>
@@ -13886,7 +13874,7 @@
         <v>78</v>
       </c>
       <c r="B174" s="59" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="C174" s="27">
         <v>39</v>
@@ -13914,7 +13902,7 @@
         <v>78</v>
       </c>
       <c r="B176" s="59" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="C176" s="27">
         <v>18</v>
@@ -14208,7 +14196,7 @@
         <v>107</v>
       </c>
       <c r="B197" s="59" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="C197" s="27">
         <v>0</v>
@@ -14236,7 +14224,7 @@
         <v>107</v>
       </c>
       <c r="B199" s="59" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="C199" s="27">
         <v>0</v>
@@ -14530,7 +14518,7 @@
         <v>80</v>
       </c>
       <c r="B220" s="59" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="C220" s="27">
         <v>7</v>
@@ -14558,7 +14546,7 @@
         <v>80</v>
       </c>
       <c r="B222" s="59" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="C222" s="27">
         <v>1</v>
@@ -14852,7 +14840,7 @@
         <v>81</v>
       </c>
       <c r="B243" s="59" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="C243" s="27">
         <v>0</v>
@@ -14880,7 +14868,7 @@
         <v>81</v>
       </c>
       <c r="B245" s="59" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="C245" s="27">
         <v>0</v>
@@ -15174,7 +15162,7 @@
         <v>82</v>
       </c>
       <c r="B266" s="59" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="C266" s="27">
         <v>1</v>
@@ -15202,7 +15190,7 @@
         <v>82</v>
       </c>
       <c r="B268" s="59" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="C268" s="27">
         <v>1</v>
@@ -15496,7 +15484,7 @@
         <v>83</v>
       </c>
       <c r="B289" s="59" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="C289" s="27">
         <v>9</v>
@@ -15524,7 +15512,7 @@
         <v>83</v>
       </c>
       <c r="B291" s="59" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="C291" s="27">
         <v>3</v>
@@ -15818,7 +15806,7 @@
         <v>84</v>
       </c>
       <c r="B312" s="59" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="C312" s="27">
         <v>4</v>
@@ -15846,7 +15834,7 @@
         <v>84</v>
       </c>
       <c r="B314" s="59" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="C314" s="27">
         <v>1</v>
@@ -16140,7 +16128,7 @@
         <v>85</v>
       </c>
       <c r="B335" s="59" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="C335" s="27">
         <v>8</v>
@@ -16168,7 +16156,7 @@
         <v>85</v>
       </c>
       <c r="B337" s="59" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="C337" s="27">
         <v>1</v>
@@ -16462,7 +16450,7 @@
         <v>86</v>
       </c>
       <c r="B358" s="59" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="C358" s="27">
         <v>6</v>
@@ -16490,7 +16478,7 @@
         <v>86</v>
       </c>
       <c r="B360" s="59" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="C360" s="27">
         <v>0</v>
@@ -16784,7 +16772,7 @@
         <v>87</v>
       </c>
       <c r="B381" s="59" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="C381" s="27">
         <v>3</v>
@@ -16812,7 +16800,7 @@
         <v>87</v>
       </c>
       <c r="B383" s="59" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="C383" s="27">
         <v>1</v>
@@ -17106,7 +17094,7 @@
         <v>46</v>
       </c>
       <c r="B404" s="59" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="C404" s="27">
         <v>9</v>
@@ -17134,7 +17122,7 @@
         <v>46</v>
       </c>
       <c r="B406" s="59" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="C406" s="27">
         <v>3</v>

--- a/HONDURAS/Delitos/UNAH/UNAH.xlsx
+++ b/HONDURAS/Delitos/UNAH/UNAH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\HONDURAS\Delitos\UNAH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB67D991-8A12-41D4-B6D1-E03AEA68BA07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB8B9D8-C29B-4E8E-9CAB-9A26685BA4A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{18233244-913E-489D-9A24-1D1BD1406925}"/>
+    <workbookView xWindow="3165" yWindow="1875" windowWidth="15375" windowHeight="7875" firstSheet="2" activeTab="2" xr2:uid="{18233244-913E-489D-9A24-1D1BD1406925}"/>
   </bookViews>
   <sheets>
     <sheet name="Muerte por violencia intenciosa" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="289">
   <si>
     <t>Año</t>
   </si>
@@ -1325,6 +1325,18 @@
   <si>
     <t>Solar baldío/ interperie</t>
   </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Gracias A Dios</t>
+  </si>
+  <si>
+    <t>Islas De La Bahía</t>
+  </si>
+  <si>
+    <t>Centro Hospitalario</t>
+  </si>
 </sst>
 </file>
 
@@ -1333,7 +1345,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1404,6 +1416,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1425,7 +1443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1577,13 +1595,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1756,6 +1807,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - Énfasis2" xfId="1" builtinId="35"/>
@@ -2369,8 +2434,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{07B61D1B-46EA-4D59-85CE-987E481270C8}" name="muerte_tipo_arma" displayName="muerte_tipo_arma" ref="A4:C26" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="40% - Énfasis2">
-  <autoFilter ref="A4:C26" xr:uid="{A9F5E053-1D82-474D-93BF-8E8A7A10DD6F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{07B61D1B-46EA-4D59-85CE-987E481270C8}" name="muerte_tipo_arma" displayName="muerte_tipo_arma" ref="A4:C31" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="40% - Énfasis2">
+  <autoFilter ref="A4:C31" xr:uid="{A9F5E053-1D82-474D-93BF-8E8A7A10DD6F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{6F8BA277-FF2F-4557-8757-9E7BF4EB0059}" name="Tipo de arma" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{1C400C88-F9FA-4B8C-9F67-6B83012C9F6F}" name="Muertes" dataDxfId="1"/>
@@ -2393,8 +2458,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{946472E9-123E-465F-A50A-E6796A5AF6FC}" name="zona_ocurrencia" displayName="zona_ocurrencia" ref="A3:C21" totalsRowShown="0">
-  <autoFilter ref="A3:C21" xr:uid="{4E940BF5-9605-4EF0-92C7-BCA32660F363}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{946472E9-123E-465F-A50A-E6796A5AF6FC}" name="zona_ocurrencia" displayName="zona_ocurrencia" ref="A3:C23" totalsRowShown="0">
+  <autoFilter ref="A3:C23" xr:uid="{4E940BF5-9605-4EF0-92C7-BCA32660F363}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8F476D14-1079-4D64-8B27-CF5FA3100290}" name="Zona"/>
     <tableColumn id="2" xr3:uid="{5FA73FA4-35D9-4E23-B3E3-27E771CA05DB}" name="Muertes"/>
@@ -2405,8 +2470,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F3DC5FB4-F88E-44B4-82F4-EFD3042AA69C}" name="causa_muerte" displayName="causa_muerte" ref="A3:D60" totalsRowShown="0">
-  <autoFilter ref="A3:D60" xr:uid="{42ED373C-6A19-4C29-8440-3019C6C66592}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F3DC5FB4-F88E-44B4-82F4-EFD3042AA69C}" name="causa_muerte" displayName="causa_muerte" ref="A3:D69" totalsRowShown="0">
+  <autoFilter ref="A3:D69" xr:uid="{42ED373C-6A19-4C29-8440-3019C6C66592}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C60">
     <sortCondition ref="A3:A60"/>
   </sortState>
@@ -2433,8 +2498,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{461BBA50-52E9-42CB-ADA9-38611E17A3B7}" name="muerte_grupo_edad" displayName="muerte_grupo_edad" ref="A4:C139" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A4:C139" xr:uid="{CFC71BC2-DD92-490C-9ECC-395525948865}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{461BBA50-52E9-42CB-ADA9-38611E17A3B7}" name="muerte_grupo_edad" displayName="muerte_grupo_edad" ref="A4:C154" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A4:C154" xr:uid="{CFC71BC2-DD92-490C-9ECC-395525948865}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CBB527C0-BFAE-4C96-BC96-50AD563105AC}" name="Rango de Edad" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{2C1EB36D-D97B-4FA6-8CBC-B91E81AD1732}" name="Muertes" dataDxfId="32"/>
@@ -2445,8 +2510,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C3A8176E-DF49-41F5-8FD4-4E22F0C26D75}" name="muertes_depto" displayName="muertes_depto" ref="A4:C131" totalsRowShown="0">
-  <autoFilter ref="A4:C131" xr:uid="{C946F0B0-8166-4C0A-9D92-CB54EE67E193}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C3A8176E-DF49-41F5-8FD4-4E22F0C26D75}" name="muertes_depto" displayName="muertes_depto" ref="A4:C149" totalsRowShown="0">
+  <autoFilter ref="A4:C149" xr:uid="{C946F0B0-8166-4C0A-9D92-CB54EE67E193}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{9BAAA5C3-C8AD-4BAD-80EE-42D2B631917D}" name="Departamento" dataDxfId="30"/>
     <tableColumn id="2" xr3:uid="{8C4FB825-9689-4EF5-8C52-4D9168A6EB03}" name="Muertes" dataDxfId="29"/>
@@ -2457,8 +2522,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{50236053-21DA-4653-A6E4-CA237431B4A5}" name="muerte_lugar" displayName="muerte_lugar" ref="A4:C84" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A4:C84" xr:uid="{FF710700-3D69-4999-8C1A-A4C1A31C32A6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{50236053-21DA-4653-A6E4-CA237431B4A5}" name="muerte_lugar" displayName="muerte_lugar" ref="A4:C96" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A4:C96" xr:uid="{FF710700-3D69-4999-8C1A-A4C1A31C32A6}">
     <filterColumn colId="0">
       <filters>
         <filter val="Restaurante, glorieta o similar"/>
@@ -2489,8 +2554,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{0ABDC39D-3DAD-4F80-8F96-1547FB6219B3}" name="muerte_depto_tipo" displayName="muerte_depto_tipo" ref="A4:D418" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
-  <autoFilter ref="A4:D418" xr:uid="{69C6564C-58E0-4D7C-88E2-A6244DDF6DDE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{0ABDC39D-3DAD-4F80-8F96-1547FB6219B3}" name="muerte_depto_tipo" displayName="muerte_depto_tipo" ref="A4:D562" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+  <autoFilter ref="A4:D562" xr:uid="{69C6564C-58E0-4D7C-88E2-A6244DDF6DDE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D418">
     <sortCondition ref="A4:A418"/>
   </sortState>
@@ -2804,7 +2869,7 @@
   <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2893,8 +2958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA55E1B-28D8-4B73-9987-FEFB380E0B51}">
   <dimension ref="A4:G66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView topLeftCell="C53" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4369,10 +4434,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454DA56C-7230-4E90-8E33-FA66FF4524E5}">
-  <dimension ref="A4:C26"/>
+  <dimension ref="A4:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4631,6 +4696,61 @@
       </c>
       <c r="C26" s="78">
         <v>2018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="88">
+        <v>241</v>
+      </c>
+      <c r="C27" s="89" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="78" t="s">
+        <v>252</v>
+      </c>
+      <c r="B28" s="88">
+        <v>69</v>
+      </c>
+      <c r="C28" s="89" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="78" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" s="88">
+        <v>40</v>
+      </c>
+      <c r="C29" s="89" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="88">
+        <v>24</v>
+      </c>
+      <c r="C30" s="89" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="B31" s="88">
+        <v>1</v>
+      </c>
+      <c r="C31" s="89" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4645,8 +4765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA269711-1671-4EDD-8EDA-BB9695DEEB7A}">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6000,10 +6120,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49012F17-4218-4B6C-B5BD-F795BE69E170}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6220,6 +6340,28 @@
       </c>
       <c r="C21" s="42">
         <v>2018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="31">
+        <v>259</v>
+      </c>
+      <c r="C22" s="31">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="42">
+        <v>129</v>
+      </c>
+      <c r="C23" s="31">
+        <v>2017</v>
       </c>
     </row>
   </sheetData>
@@ -6232,10 +6374,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067B9F28-6F00-4CDB-B59D-46E9231B5C5A}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7060,6 +7202,120 @@
       <c r="D60" s="83">
         <v>1.3621503814021068E-2</v>
       </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>276</v>
+      </c>
+      <c r="B61">
+        <v>235</v>
+      </c>
+      <c r="C61">
+        <v>2017</v>
+      </c>
+      <c r="D61" s="83">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62">
+        <v>101</v>
+      </c>
+      <c r="C62">
+        <v>2017</v>
+      </c>
+      <c r="D62" s="83">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>277</v>
+      </c>
+      <c r="B63">
+        <v>52</v>
+      </c>
+      <c r="C63">
+        <v>2017</v>
+      </c>
+      <c r="D63" s="83">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>274</v>
+      </c>
+      <c r="B64">
+        <v>106</v>
+      </c>
+      <c r="C64">
+        <v>2017</v>
+      </c>
+      <c r="D64" s="83"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>275</v>
+      </c>
+      <c r="B65">
+        <v>55</v>
+      </c>
+      <c r="C65">
+        <v>2017</v>
+      </c>
+      <c r="D65" s="83"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>272</v>
+      </c>
+      <c r="B66">
+        <v>47</v>
+      </c>
+      <c r="C66">
+        <v>2017</v>
+      </c>
+      <c r="D66" s="83"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>271</v>
+      </c>
+      <c r="B67">
+        <v>15</v>
+      </c>
+      <c r="C67">
+        <v>2017</v>
+      </c>
+      <c r="D67" s="83"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>270</v>
+      </c>
+      <c r="B68">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>2017</v>
+      </c>
+      <c r="D68" s="83"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>273</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>2017</v>
+      </c>
+      <c r="D69" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7614,10 +7870,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3699A0-1A01-4EFE-8E9A-F750FDB904AB}">
-  <dimension ref="A4:C139"/>
+  <dimension ref="A4:C154"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9121,7 +9377,173 @@
         <v>2018</v>
       </c>
     </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="B140" s="87">
+        <v>15</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="B141" s="87">
+        <v>2</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B142" s="87">
+        <v>15</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B143" s="87">
+        <v>50</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B144" s="87">
+        <v>67</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B145" s="87">
+        <v>42</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B146" s="87">
+        <v>53</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B147" s="87">
+        <v>40</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B148" s="87">
+        <v>30</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B149" s="87">
+        <v>25</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B150" s="87">
+        <v>14</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B151" s="87">
+        <v>9</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B152" s="87">
+        <v>6</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B153" s="87">
+        <v>15</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B154" s="87">
+        <v>5</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A7" twoDigitTextYear="1"/>
@@ -9134,10 +9556,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AD53AC-4B5B-4795-8578-0C5A1786D9BB}">
-  <dimension ref="A4:C131"/>
+  <dimension ref="A4:C149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A123" sqref="A123"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10551,6 +10973,204 @@
       </c>
       <c r="C131" s="43">
         <v>2018</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B132" s="54">
+        <v>32</v>
+      </c>
+      <c r="C132" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B133" s="54">
+        <v>15</v>
+      </c>
+      <c r="C133" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B134" s="54">
+        <v>23</v>
+      </c>
+      <c r="C134" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B135" s="54">
+        <v>11</v>
+      </c>
+      <c r="C135" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B136" s="54">
+        <v>116</v>
+      </c>
+      <c r="C136" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B137" s="54">
+        <v>6</v>
+      </c>
+      <c r="C137" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B138" s="54">
+        <v>5</v>
+      </c>
+      <c r="C138" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B139" s="54">
+        <v>89</v>
+      </c>
+      <c r="C139" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B140" s="54">
+        <v>4</v>
+      </c>
+      <c r="C140" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B141" s="54">
+        <v>5</v>
+      </c>
+      <c r="C141" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B142" s="54">
+        <v>2</v>
+      </c>
+      <c r="C142" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B143" s="54">
+        <v>3</v>
+      </c>
+      <c r="C143" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B144" s="54">
+        <v>14</v>
+      </c>
+      <c r="C144" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B145" s="54">
+        <v>7</v>
+      </c>
+      <c r="C145" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B146" s="54">
+        <v>12</v>
+      </c>
+      <c r="C146" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B147" s="54">
+        <v>18</v>
+      </c>
+      <c r="C147" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B148" s="54">
+        <v>3</v>
+      </c>
+      <c r="C148" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B149" s="54">
+        <v>23</v>
+      </c>
+      <c r="C149" s="43" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -10564,10 +11184,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E10C05C-44F6-4121-8B5F-1AEC22D9703D}">
-  <dimension ref="A4:C84"/>
+  <dimension ref="A4:C96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11466,6 +12086,138 @@
         <v>2018</v>
       </c>
     </row>
+    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="90">
+        <v>187</v>
+      </c>
+      <c r="C85" s="91" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" s="90">
+        <v>105</v>
+      </c>
+      <c r="C86" s="91" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="91" t="s">
+        <v>284</v>
+      </c>
+      <c r="B87" s="90">
+        <v>17</v>
+      </c>
+      <c r="C87" s="91" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" s="90">
+        <v>16</v>
+      </c>
+      <c r="C88" s="91" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="91" t="s">
+        <v>204</v>
+      </c>
+      <c r="B89" s="90">
+        <v>13</v>
+      </c>
+      <c r="C89" s="91" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="90">
+        <v>12</v>
+      </c>
+      <c r="C90" s="91" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="B91" s="90">
+        <v>8</v>
+      </c>
+      <c r="C91" s="91" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="91" t="s">
+        <v>205</v>
+      </c>
+      <c r="B92" s="90">
+        <v>6</v>
+      </c>
+      <c r="C92" s="91" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="90">
+        <v>5</v>
+      </c>
+      <c r="C93" s="91" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="90">
+        <v>3</v>
+      </c>
+      <c r="C94" s="91" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="91" t="s">
+        <v>288</v>
+      </c>
+      <c r="B95" s="90">
+        <v>2</v>
+      </c>
+      <c r="C95" s="91" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="90">
+        <v>1</v>
+      </c>
+      <c r="C96" s="91" t="s">
+        <v>285</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -11476,10 +12228,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C86918-EF20-4B0C-9DA5-4770B7F64ADA}">
-  <dimension ref="A4:D418"/>
+  <dimension ref="A4:D562"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B406" sqref="B406"/>
+    <sheetView topLeftCell="A553" workbookViewId="0">
+      <selection activeCell="C563" sqref="C563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17299,6 +18051,2022 @@
         <v>2013</v>
       </c>
     </row>
+    <row r="419" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A419" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="B419" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C419" s="86">
+        <v>4</v>
+      </c>
+      <c r="D419" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A420" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="B420" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C420" s="86">
+        <v>0</v>
+      </c>
+      <c r="D420" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A421" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="B421" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C421" s="86">
+        <v>10</v>
+      </c>
+      <c r="D421" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A422" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="B422" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C422" s="86">
+        <v>0</v>
+      </c>
+      <c r="D422" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A423" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="B423" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C423" s="86">
+        <v>2</v>
+      </c>
+      <c r="D423" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A424" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="B424" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C424" s="86">
+        <v>6</v>
+      </c>
+      <c r="D424" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A425" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="B425" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C425" s="86">
+        <v>2</v>
+      </c>
+      <c r="D425" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A426" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="B426" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C426" s="86">
+        <v>8</v>
+      </c>
+      <c r="D426" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A427" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B427" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C427" s="84">
+        <v>3</v>
+      </c>
+      <c r="D427" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A428" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B428" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C428" s="84">
+        <v>0</v>
+      </c>
+      <c r="D428" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A429" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B429" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C429" s="84">
+        <v>4</v>
+      </c>
+      <c r="D429" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A430" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B430" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C430" s="84">
+        <v>0</v>
+      </c>
+      <c r="D430" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A431" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B431" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C431" s="84">
+        <v>0</v>
+      </c>
+      <c r="D431" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A432" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B432" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C432" s="84">
+        <v>1</v>
+      </c>
+      <c r="D432" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A433" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B433" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C433" s="84">
+        <v>2</v>
+      </c>
+      <c r="D433" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A434" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B434" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C434" s="86">
+        <v>5</v>
+      </c>
+      <c r="D434" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A435" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B435" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C435" s="84">
+        <v>3</v>
+      </c>
+      <c r="D435" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A436" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B436" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C436" s="84">
+        <v>0</v>
+      </c>
+      <c r="D436" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A437" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B437" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C437" s="84">
+        <v>10</v>
+      </c>
+      <c r="D437" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A438" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B438" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C438" s="84">
+        <v>0</v>
+      </c>
+      <c r="D438" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A439" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B439" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C439" s="84">
+        <v>1</v>
+      </c>
+      <c r="D439" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A440" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B440" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C440" s="84">
+        <v>1</v>
+      </c>
+      <c r="D440" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A441" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B441" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C441" s="84">
+        <v>4</v>
+      </c>
+      <c r="D441" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A442" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B442" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C442" s="86">
+        <v>4</v>
+      </c>
+      <c r="D442" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A443" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B443" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C443" s="84">
+        <v>2</v>
+      </c>
+      <c r="D443" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A444" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B444" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C444" s="84">
+        <v>0</v>
+      </c>
+      <c r="D444" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A445" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B445" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C445" s="84">
+        <v>0</v>
+      </c>
+      <c r="D445" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A446" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B446" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C446" s="84">
+        <v>0</v>
+      </c>
+      <c r="D446" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A447" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B447" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C447" s="84">
+        <v>1</v>
+      </c>
+      <c r="D447" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A448" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B448" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C448" s="84">
+        <v>1</v>
+      </c>
+      <c r="D448" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A449" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B449" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C449" s="84">
+        <v>1</v>
+      </c>
+      <c r="D449" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A450" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B450" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C450" s="86">
+        <v>6</v>
+      </c>
+      <c r="D450" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A451" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B451" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C451" s="84">
+        <v>14</v>
+      </c>
+      <c r="D451" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A452" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B452" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C452" s="84">
+        <v>0</v>
+      </c>
+      <c r="D452" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A453" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B453" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C453" s="84">
+        <v>28</v>
+      </c>
+      <c r="D453" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A454" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B454" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C454" s="84">
+        <v>1</v>
+      </c>
+      <c r="D454" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A455" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B455" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C455" s="84">
+        <v>6</v>
+      </c>
+      <c r="D455" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A456" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B456" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C456" s="84">
+        <v>22</v>
+      </c>
+      <c r="D456" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A457" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B457" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C457" s="84">
+        <v>21</v>
+      </c>
+      <c r="D457" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A458" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B458" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C458" s="86">
+        <v>24</v>
+      </c>
+      <c r="D458" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A459" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B459" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C459" s="84">
+        <v>0</v>
+      </c>
+      <c r="D459" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A460" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B460" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C460" s="84">
+        <v>0</v>
+      </c>
+      <c r="D460" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A461" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B461" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C461" s="84">
+        <v>2</v>
+      </c>
+      <c r="D461" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A462" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B462" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C462" s="84">
+        <v>2</v>
+      </c>
+      <c r="D462" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A463" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B463" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C463" s="84">
+        <v>1</v>
+      </c>
+      <c r="D463" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A464" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B464" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C464" s="84">
+        <v>0</v>
+      </c>
+      <c r="D464" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A465" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B465" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C465" s="84">
+        <v>0</v>
+      </c>
+      <c r="D465" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A466" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B466" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C466" s="86">
+        <v>1</v>
+      </c>
+      <c r="D466" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A467" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B467" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C467" s="84">
+        <v>0</v>
+      </c>
+      <c r="D467" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A468" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B468" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C468" s="84">
+        <v>0</v>
+      </c>
+      <c r="D468" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A469" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B469" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C469" s="84">
+        <v>3</v>
+      </c>
+      <c r="D469" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A470" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B470" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C470" s="84">
+        <v>0</v>
+      </c>
+      <c r="D470" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A471" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B471" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C471" s="84">
+        <v>0</v>
+      </c>
+      <c r="D471" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A472" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B472" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C472" s="84">
+        <v>0</v>
+      </c>
+      <c r="D472" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A473" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B473" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C473" s="84">
+        <v>1</v>
+      </c>
+      <c r="D473" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A474" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B474" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C474" s="86">
+        <v>1</v>
+      </c>
+      <c r="D474" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A475" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B475" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C475" s="84">
+        <v>4</v>
+      </c>
+      <c r="D475" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A476" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B476" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C476" s="84">
+        <v>0</v>
+      </c>
+      <c r="D476" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A477" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B477" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C477" s="84">
+        <v>34</v>
+      </c>
+      <c r="D477" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A478" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B478" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C478" s="84">
+        <v>0</v>
+      </c>
+      <c r="D478" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A479" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B479" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C479" s="84">
+        <v>1</v>
+      </c>
+      <c r="D479" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A480" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B480" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C480" s="84">
+        <v>14</v>
+      </c>
+      <c r="D480" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A481" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B481" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C481" s="84">
+        <v>15</v>
+      </c>
+      <c r="D481" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A482" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B482" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C482" s="86">
+        <v>21</v>
+      </c>
+      <c r="D482" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A483" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="B483" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C483" s="84">
+        <v>0</v>
+      </c>
+      <c r="D483" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A484" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="B484" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C484" s="84">
+        <v>0</v>
+      </c>
+      <c r="D484" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A485" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="B485" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C485" s="84">
+        <v>0</v>
+      </c>
+      <c r="D485" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A486" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="B486" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C486" s="84">
+        <v>0</v>
+      </c>
+      <c r="D486" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A487" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="B487" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C487" s="84">
+        <v>0</v>
+      </c>
+      <c r="D487" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A488" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="B488" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C488" s="84">
+        <v>0</v>
+      </c>
+      <c r="D488" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A489" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="B489" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C489" s="84">
+        <v>0</v>
+      </c>
+      <c r="D489" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A490" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="B490" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C490" s="86">
+        <v>4</v>
+      </c>
+      <c r="D490" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A491" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B491" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C491" s="84">
+        <v>1</v>
+      </c>
+      <c r="D491" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A492" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B492" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C492" s="84">
+        <v>1</v>
+      </c>
+      <c r="D492" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A493" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B493" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C493" s="84">
+        <v>1</v>
+      </c>
+      <c r="D493" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A494" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B494" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C494" s="84">
+        <v>0</v>
+      </c>
+      <c r="D494" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A495" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B495" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C495" s="84">
+        <v>1</v>
+      </c>
+      <c r="D495" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A496" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B496" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C496" s="84">
+        <v>0</v>
+      </c>
+      <c r="D496" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A497" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B497" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C497" s="84">
+        <v>0</v>
+      </c>
+      <c r="D497" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A498" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B498" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C498" s="86">
+        <v>1</v>
+      </c>
+      <c r="D498" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A499" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="B499" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C499" s="84">
+        <v>0</v>
+      </c>
+      <c r="D499" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A500" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="B500" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C500" s="84">
+        <v>0</v>
+      </c>
+      <c r="D500" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A501" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="B501" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C501" s="84">
+        <v>1</v>
+      </c>
+      <c r="D501" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A502" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="B502" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C502" s="84">
+        <v>0</v>
+      </c>
+      <c r="D502" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A503" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="B503" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C503" s="84">
+        <v>0</v>
+      </c>
+      <c r="D503" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A504" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="B504" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C504" s="84">
+        <v>1</v>
+      </c>
+      <c r="D504" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A505" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="B505" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C505" s="84">
+        <v>0</v>
+      </c>
+      <c r="D505" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A506" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="B506" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C506" s="86">
+        <v>0</v>
+      </c>
+      <c r="D506" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A507" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B507" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C507" s="84">
+        <v>1</v>
+      </c>
+      <c r="D507" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A508" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B508" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C508" s="84">
+        <v>2</v>
+      </c>
+      <c r="D508" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A509" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B509" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C509" s="84">
+        <v>0</v>
+      </c>
+      <c r="D509" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A510" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B510" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C510" s="84">
+        <v>0</v>
+      </c>
+      <c r="D510" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A511" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B511" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C511" s="84">
+        <v>0</v>
+      </c>
+      <c r="D511" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A512" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B512" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C512" s="84">
+        <v>0</v>
+      </c>
+      <c r="D512" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A513" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B513" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C513" s="84">
+        <v>0</v>
+      </c>
+      <c r="D513" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A514" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B514" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C514" s="86">
+        <v>0</v>
+      </c>
+      <c r="D514" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A515" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B515" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C515" s="84">
+        <v>3</v>
+      </c>
+      <c r="D515" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A516" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B516" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C516" s="84">
+        <v>0</v>
+      </c>
+      <c r="D516" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A517" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B517" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C517" s="84">
+        <v>3</v>
+      </c>
+      <c r="D517" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A518" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B518" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C518" s="84">
+        <v>0</v>
+      </c>
+      <c r="D518" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A519" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B519" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C519" s="84">
+        <v>0</v>
+      </c>
+      <c r="D519" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A520" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B520" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C520" s="84">
+        <v>0</v>
+      </c>
+      <c r="D520" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A521" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B521" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C521" s="84">
+        <v>2</v>
+      </c>
+      <c r="D521" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A522" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B522" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C522" s="86">
+        <v>6</v>
+      </c>
+      <c r="D522" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A523" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B523" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C523" s="84">
+        <v>1</v>
+      </c>
+      <c r="D523" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A524" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B524" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C524" s="84">
+        <v>0</v>
+      </c>
+      <c r="D524" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A525" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B525" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C525" s="84">
+        <v>0</v>
+      </c>
+      <c r="D525" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A526" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B526" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C526" s="84">
+        <v>0</v>
+      </c>
+      <c r="D526" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A527" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B527" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C527" s="84">
+        <v>0</v>
+      </c>
+      <c r="D527" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A528" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B528" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C528" s="84">
+        <v>1</v>
+      </c>
+      <c r="D528" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A529" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B529" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C529" s="84">
+        <v>1</v>
+      </c>
+      <c r="D529" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A530" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B530" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C530" s="86">
+        <v>4</v>
+      </c>
+      <c r="D530" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A531" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B531" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C531" s="84">
+        <v>3</v>
+      </c>
+      <c r="D531" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A532" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B532" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C532" s="84">
+        <v>2</v>
+      </c>
+      <c r="D532" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A533" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B533" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C533" s="84">
+        <v>2</v>
+      </c>
+      <c r="D533" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A534" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B534" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C534" s="84">
+        <v>0</v>
+      </c>
+      <c r="D534" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A535" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B535" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C535" s="84">
+        <v>0</v>
+      </c>
+      <c r="D535" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A536" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B536" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C536" s="84">
+        <v>0</v>
+      </c>
+      <c r="D536" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A537" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B537" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C537" s="84">
+        <v>0</v>
+      </c>
+      <c r="D537" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A538" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B538" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C538" s="86">
+        <v>5</v>
+      </c>
+      <c r="D538" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A539" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B539" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C539" s="84">
+        <v>4</v>
+      </c>
+      <c r="D539" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A540" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B540" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C540" s="84">
+        <v>2</v>
+      </c>
+      <c r="D540" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A541" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B541" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C541" s="84">
+        <v>1</v>
+      </c>
+      <c r="D541" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A542" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B542" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C542" s="84">
+        <v>0</v>
+      </c>
+      <c r="D542" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A543" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B543" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C543" s="84">
+        <v>0</v>
+      </c>
+      <c r="D543" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A544" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B544" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C544" s="84">
+        <v>5</v>
+      </c>
+      <c r="D544" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A545" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B545" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C545" s="84">
+        <v>2</v>
+      </c>
+      <c r="D545" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A546" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B546" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C546" s="86">
+        <v>4</v>
+      </c>
+      <c r="D546" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A547" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B547" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C547" s="84">
+        <v>1</v>
+      </c>
+      <c r="D547" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A548" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B548" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C548" s="84">
+        <v>0</v>
+      </c>
+      <c r="D548" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A549" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B549" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C549" s="84">
+        <v>1</v>
+      </c>
+      <c r="D549" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A550" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B550" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C550" s="84">
+        <v>0</v>
+      </c>
+      <c r="D550" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A551" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B551" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C551" s="84">
+        <v>1</v>
+      </c>
+      <c r="D551" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A552" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B552" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C552" s="84">
+        <v>0</v>
+      </c>
+      <c r="D552" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A553" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B553" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C553" s="84">
+        <v>0</v>
+      </c>
+      <c r="D553" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A554" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B554" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C554" s="86">
+        <v>0</v>
+      </c>
+      <c r="D554" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A555" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B555" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C555" s="84">
+        <v>3</v>
+      </c>
+      <c r="D555" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A556" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B556" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C556" s="84">
+        <v>1</v>
+      </c>
+      <c r="D556" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A557" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B557" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C557" s="84">
+        <v>6</v>
+      </c>
+      <c r="D557" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A558" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B558" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C558" s="84">
+        <v>1</v>
+      </c>
+      <c r="D558" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A559" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B559" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C559" s="84">
+        <v>1</v>
+      </c>
+      <c r="D559" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A560" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B560" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C560" s="84">
+        <v>3</v>
+      </c>
+      <c r="D560" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A561" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B561" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C561" s="84">
+        <v>1</v>
+      </c>
+      <c r="D561" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A562" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B562" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C562" s="86">
+        <v>7</v>
+      </c>
+      <c r="D562" s="85" t="s">
+        <v>285</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
